--- a/RDP_Output/tsv_adjusted_raw_allrank_All_16s_fix_2_trim_25.fasta_classified.xlsx
+++ b/RDP_Output/tsv_adjusted_raw_allrank_All_16s_fix_2_trim_25.fasta_classified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goldie04\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f99031edd5ae8f6c/Documents/GitHub/Sanger_Phred_Code/RDP_Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C22FD3C-B9DE-476A-AE6F-D76FA25C3110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{2C22FD3C-B9DE-476A-AE6F-D76FA25C3110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{206A0EF7-FF28-400C-94BF-95C2443A375F}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="345" windowWidth="28800" windowHeight="15345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tsv_adjusted_raw_allrank_All_16" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="364">
   <si>
     <t>Classifier: RDP Naive Bayesian rRNA Classifier Version 2.11, September 2015</t>
   </si>
@@ -121,27 +121,6 @@
     <t>Morganella</t>
   </si>
   <si>
-    <t>A01_hvs_KL1_8F_4338589_015.ab1</t>
-  </si>
-  <si>
-    <t>KL1</t>
-  </si>
-  <si>
-    <t>Bacteroidetes</t>
-  </si>
-  <si>
-    <t>Flavobacteriia</t>
-  </si>
-  <si>
-    <t>Flavobacteriales</t>
-  </si>
-  <si>
-    <t>Weeksellaceae</t>
-  </si>
-  <si>
-    <t>Chryseobacterium</t>
-  </si>
-  <si>
     <t>A02_hvs_246_8F_5347638_016.ab1</t>
   </si>
   <si>
@@ -157,24 +136,6 @@
     <t>A02_hvs_792_8F_5095511_016.ab1</t>
   </si>
   <si>
-    <t>A02_hvs_KW1_8F_4338589_016.ab1</t>
-  </si>
-  <si>
-    <t>KW1</t>
-  </si>
-  <si>
-    <t>Alphaproteobacteria</t>
-  </si>
-  <si>
-    <t>Rhizobiales</t>
-  </si>
-  <si>
-    <t>Brucellaceae</t>
-  </si>
-  <si>
-    <t>Pseudochrobactrum</t>
-  </si>
-  <si>
     <t>A03_hvs_344_8F_5347638_031.ab1</t>
   </si>
   <si>
@@ -184,21 +145,6 @@
     <t>A03_hvs_820_8F_5095511_031.ab1</t>
   </si>
   <si>
-    <t>A03_hvs_AL3_8F_4338589_031.ab1</t>
-  </si>
-  <si>
-    <t>AL3</t>
-  </si>
-  <si>
-    <t>Aeromonadales</t>
-  </si>
-  <si>
-    <t>Aeromonadaceae</t>
-  </si>
-  <si>
-    <t>Aeromonas</t>
-  </si>
-  <si>
     <t>A04_hvs_408_8F_5347638_032.ab1</t>
   </si>
   <si>
@@ -313,12 +259,6 @@
     <t>B01_hvs_83_8F_5347638_013.ab1</t>
   </si>
   <si>
-    <t>B01_hvs_KL2_8F_4338589_013.ab1</t>
-  </si>
-  <si>
-    <t>KL2</t>
-  </si>
-  <si>
     <t>Betaproteobacteria</t>
   </si>
   <si>
@@ -343,39 +283,12 @@
     <t>B02_hvs_793_8F_5095511_014.ab1</t>
   </si>
   <si>
-    <t>B02_hvs_KW2_8F_4338589_014.ab1</t>
-  </si>
-  <si>
-    <t>KW2</t>
-  </si>
-  <si>
-    <t>Elizabethkingia</t>
-  </si>
-  <si>
     <t>B03_hvs_409_8F_5095511_029.ab1</t>
   </si>
   <si>
-    <t>B03_hvs_AL4_8F_4338589_029.ab1</t>
-  </si>
-  <si>
-    <t>AL4</t>
-  </si>
-  <si>
     <t>Firmicutes</t>
   </si>
   <si>
-    <t>Bacilli</t>
-  </si>
-  <si>
-    <t>Lactobacillales</t>
-  </si>
-  <si>
-    <t>Enterococcaceae</t>
-  </si>
-  <si>
-    <t>Enterococcus</t>
-  </si>
-  <si>
     <t>B04_hvs_412_8F_5347638_030.ab1</t>
   </si>
   <si>
@@ -484,12 +397,6 @@
     <t>C01_hvs_189_8F_5095511_011.ab1</t>
   </si>
   <si>
-    <t>C01_hvs_KL3_8F_4338589_011.ab1</t>
-  </si>
-  <si>
-    <t>KL3</t>
-  </si>
-  <si>
     <t>C02_hvs_275_8F_5347638_012.ab1</t>
   </si>
   <si>
@@ -505,24 +412,9 @@
     <t>C02_hvs_799_8F_5095511_012.ab1</t>
   </si>
   <si>
-    <t>C02_hvs_AW1_8F_4338589_012.ab1</t>
-  </si>
-  <si>
-    <t>AW1</t>
-  </si>
-  <si>
-    <t>Kinneretia</t>
-  </si>
-  <si>
     <t>C03_hvs_348_8F_5347638_027.ab1</t>
   </si>
   <si>
-    <t>C03_hvs_AL5_8F_4338589_027.ab1</t>
-  </si>
-  <si>
-    <t>AL5</t>
-  </si>
-  <si>
     <t>C04_hvs_425_8F_5347638_028.ab1</t>
   </si>
   <si>
@@ -634,12 +526,6 @@
     <t>Geminisphaera</t>
   </si>
   <si>
-    <t>D01_hvs_KL4_8F_4338589_009.ab1</t>
-  </si>
-  <si>
-    <t>KL4</t>
-  </si>
-  <si>
     <t>D02_hvs_276_8F_5347638_010.ab1</t>
   </si>
   <si>
@@ -649,36 +535,12 @@
     <t>D02_hvs_809_8F_5095511_010.ab1</t>
   </si>
   <si>
-    <t>D02_hvs_AW2_8F_4338589_010.ab1</t>
-  </si>
-  <si>
-    <t>AW2</t>
-  </si>
-  <si>
     <t>D03_hvs_411_8F_5095511_025.ab1</t>
   </si>
   <si>
     <t>D03_hvs_828_8F_5095511_025.ab1</t>
   </si>
   <si>
-    <t>D03_hvs_AL6_8F_4338589_025.ab1</t>
-  </si>
-  <si>
-    <t>AL6</t>
-  </si>
-  <si>
-    <t>Actinobacteria</t>
-  </si>
-  <si>
-    <t>Micrococcales</t>
-  </si>
-  <si>
-    <t>Microbacteriaceae</t>
-  </si>
-  <si>
-    <t>Leucobacter</t>
-  </si>
-  <si>
     <t>D04_hvs_434_8F_5347638_026.ab1</t>
   </si>
   <si>
@@ -784,12 +646,6 @@
     <t>E01_hvs_743_8F_5095511_007.ab1</t>
   </si>
   <si>
-    <t>E01_hvs_KL5_8F_4338589_007.ab1</t>
-  </si>
-  <si>
-    <t>KL5</t>
-  </si>
-  <si>
     <t>E02_hvs_285_8F_5347638_008.ab1</t>
   </si>
   <si>
@@ -799,24 +655,12 @@
     <t>E02_hvs_811_8F_5095511_008.ab1</t>
   </si>
   <si>
-    <t>E02_hvs_AW3_8F_4338589_008.ab1</t>
-  </si>
-  <si>
-    <t>AW3</t>
-  </si>
-  <si>
     <t>E03_hvs_416_8F_5095511_023.ab1</t>
   </si>
   <si>
     <t>E03_hvs_829_8F_5095511_023.ab1</t>
   </si>
   <si>
-    <t>E03_hvs_AL7-2_8F_4338589_023.ab1</t>
-  </si>
-  <si>
-    <t>AL7-2</t>
-  </si>
-  <si>
     <t>Pseudomonadales</t>
   </si>
   <si>
@@ -913,21 +757,6 @@
     <t>F01_hvs_365_8F_5095511_005.ab1</t>
   </si>
   <si>
-    <t>F01_hvs_KL6_8F_4338589_005.ab1</t>
-  </si>
-  <si>
-    <t>KL6</t>
-  </si>
-  <si>
-    <t>Xanthomonadales</t>
-  </si>
-  <si>
-    <t>Xanthomonadaceae</t>
-  </si>
-  <si>
-    <t>Stenotrophomonas</t>
-  </si>
-  <si>
     <t>F02_hvs_297_8F_5347638_006.ab1</t>
   </si>
   <si>
@@ -937,12 +766,6 @@
     <t>F02_hvs_812_8F_5095511_006.ab1</t>
   </si>
   <si>
-    <t>F02_hvs_AW4_8F_4338589_006.ab1</t>
-  </si>
-  <si>
-    <t>AW4</t>
-  </si>
-  <si>
     <t>F03_hvs_366_8F_5347638_021.ab1</t>
   </si>
   <si>
@@ -952,21 +775,6 @@
     <t>F03_hvs_830_8F_5095511_021.ab1</t>
   </si>
   <si>
-    <t>F03_hvs_AL7-1_8F_4338589_021.ab1</t>
-  </si>
-  <si>
-    <t>AL7-1</t>
-  </si>
-  <si>
-    <t>Rhodobacterales</t>
-  </si>
-  <si>
-    <t>Rhodobacteraceae</t>
-  </si>
-  <si>
-    <t>Paracoccus</t>
-  </si>
-  <si>
     <t>F04_hvs_444_8F_5347638_022.ab1</t>
   </si>
   <si>
@@ -1051,12 +859,6 @@
     <t>Rhabdanaerobium</t>
   </si>
   <si>
-    <t>G01_hvs_KL7_8F_4338589_003.ab1</t>
-  </si>
-  <si>
-    <t>KL7</t>
-  </si>
-  <si>
     <t>G02_hvs_309_8F_5347638_004.ab1</t>
   </si>
   <si>
@@ -1066,27 +868,6 @@
     <t>G02_hvs_813_8F_5095511_004.ab1</t>
   </si>
   <si>
-    <t>G02_hvs_AL1_8F_4338589_004.ab1</t>
-  </si>
-  <si>
-    <t>AL1</t>
-  </si>
-  <si>
-    <t>Planctomycetes</t>
-  </si>
-  <si>
-    <t>Phycisphaerae</t>
-  </si>
-  <si>
-    <t>Sedimentisphaerales</t>
-  </si>
-  <si>
-    <t>Sedimentisphaeraceae</t>
-  </si>
-  <si>
-    <t>Limihaloglobus</t>
-  </si>
-  <si>
     <t>G03_hvs_382_8F_5347638_019.ab1</t>
   </si>
   <si>
@@ -1099,24 +880,6 @@
     <t>G03_hvs_833_8F_5095511_019.ab1</t>
   </si>
   <si>
-    <t>G03_hvs_CS1_8F_4338589_019.ab1</t>
-  </si>
-  <si>
-    <t>CS1</t>
-  </si>
-  <si>
-    <t>Erysipelotrichia</t>
-  </si>
-  <si>
-    <t>Erysipelotrichales</t>
-  </si>
-  <si>
-    <t>Erysipelotrichaceae</t>
-  </si>
-  <si>
-    <t>Dielma</t>
-  </si>
-  <si>
     <t>G04_hvs_457_8F_5095511_020.ab1</t>
   </si>
   <si>
@@ -1228,12 +991,6 @@
     <t>H01_hvs_774_8F_5095511_001.ab1</t>
   </si>
   <si>
-    <t>H01_hvs_KL8_8F_4338589_001.ab1</t>
-  </si>
-  <si>
-    <t>KL8</t>
-  </si>
-  <si>
     <t>H02_hvs_313_8F_5347638_002.ab1</t>
   </si>
   <si>
@@ -1250,15 +1007,6 @@
   </si>
   <si>
     <t>Aliikangiella</t>
-  </si>
-  <si>
-    <t>H02_hvs_AL2_8F_4338589_002.ab1</t>
-  </si>
-  <si>
-    <t>AL2</t>
-  </si>
-  <si>
-    <t>Homoserinibacter</t>
   </si>
   <si>
     <t>H03_hvs_387_8F_5347638_017.ab1</t>
@@ -1369,7 +1117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1909,9 +1657,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1949,7 +1697,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2055,7 +1803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2197,19 +1945,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250:XFD250"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2398,61 +2151,61 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>39</v>
-      </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>246</v>
+        <v>380</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -2494,18 +2247,18 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13">
-        <v>380</v>
+        <v>792</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -2547,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="1">
         <v>1</v>
@@ -2555,10 +2308,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>792</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -2594,13 +2347,13 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="1">
         <v>1</v>
@@ -2608,10 +2361,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>405</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -2635,25 +2388,25 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="1">
         <v>1</v>
@@ -2661,10 +2414,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>344</v>
+        <v>820</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -2700,13 +2453,13 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="1">
         <v>1</v>
@@ -2714,10 +2467,10 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -2756,21 +2509,21 @@
         <v>28</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B18">
-        <v>820</v>
+        <v>428</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -2812,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
@@ -2820,10 +2573,10 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -2853,30 +2606,30 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <v>408</v>
+        <v>843</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -2915,21 +2668,21 @@
         <v>28</v>
       </c>
       <c r="O20" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -2968,21 +2721,21 @@
         <v>28</v>
       </c>
       <c r="O21" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>875</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -3024,18 +2777,18 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B23">
-        <v>843</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -3077,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="1">
         <v>1</v>
@@ -3085,13 +2838,13 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B24">
-        <v>472</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -3103,45 +2856,51 @@
         <v>24</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="L24" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="M24" s="1">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="O24" s="1">
-        <v>0.99</v>
+        <v>0.09</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.25</v>
+        <v>0.09</v>
+      </c>
+      <c r="R24" t="s">
+        <v>54</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.09</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B25">
-        <v>875</v>
+        <v>486</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
@@ -3183,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -3191,10 +2950,10 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>613</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -3236,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -3244,13 +3003,13 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>900</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -3262,51 +3021,45 @@
         <v>24</v>
       </c>
       <c r="G27" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>25</v>
       </c>
       <c r="I27" s="1">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K27" s="1">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="M27" s="1">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O27" s="1">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="R27" t="s">
-        <v>72</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
@@ -3348,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -3356,10 +3109,10 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>613</v>
+        <v>700</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -3401,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="1">
         <v>1</v>
@@ -3409,10 +3162,10 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B30">
-        <v>900</v>
+        <v>959</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -3454,18 +3207,18 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B31">
-        <v>510</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -3507,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="1">
         <v>1</v>
@@ -3515,10 +3268,10 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -3554,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q32" s="1">
         <v>1</v>
@@ -3568,10 +3321,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B33">
-        <v>959</v>
+        <v>874</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
@@ -3613,18 +3366,18 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B34">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -3660,13 +3413,13 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="Q34" s="1">
         <v>1</v>
@@ -3674,10 +3427,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B35">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
@@ -3713,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="1">
         <v>1</v>
@@ -3727,10 +3480,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>874</v>
+        <v>982</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -3772,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="1">
         <v>1</v>
@@ -3780,10 +3533,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -3819,13 +3572,13 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="1">
         <v>1</v>
@@ -3833,10 +3586,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B38">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -3878,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q38" s="1">
         <v>1</v>
@@ -3886,10 +3639,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B39">
-        <v>982</v>
+        <v>316</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -3925,13 +3678,13 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q39" s="1">
         <v>1</v>
@@ -3939,10 +3692,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B40">
-        <v>289</v>
+        <v>636</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
@@ -3984,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="1">
         <v>1</v>
@@ -3992,10 +3745,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B41">
-        <v>611</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
@@ -4037,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="Q41" s="1">
         <v>1</v>
@@ -4045,10 +3798,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B42">
-        <v>316</v>
+        <v>680</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
@@ -4084,13 +3837,13 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="Q42" s="1">
         <v>1</v>
@@ -4098,10 +3851,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B43">
-        <v>636</v>
+        <v>735</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -4137,13 +3890,13 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="Q43" s="1">
         <v>1</v>
@@ -4151,10 +3904,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B44">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
@@ -4196,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="Q44" s="1">
         <v>1</v>
@@ -4204,10 +3957,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B45">
-        <v>680</v>
+        <v>265</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
@@ -4249,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="Q45" s="1">
         <v>1</v>
@@ -4257,10 +4010,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B46">
-        <v>735</v>
+        <v>381</v>
       </c>
       <c r="C46" t="s">
         <v>22</v>
@@ -4296,13 +4049,13 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="Q46" s="1">
         <v>1</v>
@@ -4310,10 +4063,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B47">
-        <v>83</v>
+        <v>793</v>
       </c>
       <c r="C47" t="s">
         <v>22</v>
@@ -4355,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q47" s="1">
         <v>1</v>
@@ -4363,10 +4116,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="B48">
+        <v>409</v>
       </c>
       <c r="C48" t="s">
         <v>22</v>
@@ -4390,25 +4143,25 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M48" s="1">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="Q48" s="1">
         <v>1</v>
@@ -4416,10 +4169,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B49">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
@@ -4461,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="Q49" s="1">
         <v>1</v>
@@ -4469,10 +4222,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B50">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="C50" t="s">
         <v>22</v>
@@ -4514,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q50" s="1">
         <v>1</v>
@@ -4522,10 +4275,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B51">
-        <v>793</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
         <v>22</v>
@@ -4567,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q51" s="1">
         <v>1</v>
@@ -4575,10 +4328,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="B52">
+        <v>852</v>
       </c>
       <c r="C52" t="s">
         <v>22</v>
@@ -4596,42 +4349,42 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M52" s="1">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B53">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
@@ -4673,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q53" s="1">
         <v>1</v>
@@ -4681,13 +4434,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
+        <v>94</v>
+      </c>
+      <c r="B54">
+        <v>498</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -4702,42 +4455,42 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J54" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="L54" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="M54" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="N54" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="O54" s="1">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="P54" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="Q54" s="1">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B55">
-        <v>412</v>
+        <v>877</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
@@ -4779,18 +4532,18 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q55" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B56">
-        <v>432</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
@@ -4832,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q56" s="1">
         <v>1</v>
@@ -4840,10 +4593,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B57">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
@@ -4885,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q57" s="1">
         <v>1</v>
@@ -4893,10 +4646,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B58">
-        <v>852</v>
+        <v>488</v>
       </c>
       <c r="C58" t="s">
         <v>22</v>
@@ -4938,18 +4691,18 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="Q58" s="1">
-        <v>0.51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B59">
-        <v>473</v>
+        <v>614</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -4988,24 +4741,24 @@
         <v>28</v>
       </c>
       <c r="O59" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P59" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q59" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B60">
-        <v>498</v>
+        <v>910</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -5023,39 +4776,39 @@
         <v>25</v>
       </c>
       <c r="I60" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>26</v>
       </c>
       <c r="K60" s="1">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="L60" t="s">
         <v>27</v>
       </c>
       <c r="M60" s="1">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s">
         <v>28</v>
       </c>
       <c r="O60" s="1">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="Q60" s="1">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B61">
-        <v>877</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
         <v>22</v>
@@ -5097,18 +4850,18 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q61" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B62">
-        <v>91</v>
+        <v>519</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
@@ -5150,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q62" s="1">
         <v>1</v>
@@ -5158,10 +4911,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B63">
-        <v>153</v>
+        <v>705</v>
       </c>
       <c r="C63" t="s">
         <v>22</v>
@@ -5203,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q63" s="1">
         <v>1</v>
@@ -5211,10 +4964,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B64">
-        <v>488</v>
+        <v>967</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
@@ -5256,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q64" s="1">
         <v>1</v>
@@ -5264,10 +5017,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B65">
-        <v>614</v>
+        <v>218</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
@@ -5306,21 +5059,21 @@
         <v>28</v>
       </c>
       <c r="O65" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q65" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B66">
-        <v>910</v>
+        <v>555</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
@@ -5356,13 +5109,13 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q66" s="1">
         <v>1</v>
@@ -5370,10 +5123,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B67">
-        <v>190</v>
+        <v>906</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -5415,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q67" s="1">
         <v>1</v>
@@ -5423,10 +5176,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B68">
-        <v>519</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -5468,18 +5221,18 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="Q68" s="1">
-        <v>1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B69">
-        <v>705</v>
+        <v>586</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
@@ -5521,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q69" s="1">
         <v>1</v>
@@ -5529,10 +5282,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B70">
-        <v>967</v>
+        <v>989</v>
       </c>
       <c r="C70" t="s">
         <v>22</v>
@@ -5574,18 +5327,18 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B71">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
@@ -5627,18 +5380,18 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B72">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
@@ -5674,13 +5427,13 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="Q72" s="1">
         <v>1</v>
@@ -5688,10 +5441,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B73">
-        <v>906</v>
+        <v>335</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
@@ -5730,21 +5483,21 @@
         <v>28</v>
       </c>
       <c r="O73" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P73" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="Q73" s="1">
-        <v>1</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B74">
-        <v>251</v>
+        <v>646</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -5786,18 +5539,18 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="Q74" s="1">
-        <v>0.52</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B75">
-        <v>586</v>
+        <v>353</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -5839,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q75" s="1">
         <v>1</v>
@@ -5847,13 +5600,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B76">
-        <v>989</v>
+        <v>681</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -5865,45 +5618,45 @@
         <v>24</v>
       </c>
       <c r="G76" s="1">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I76" s="1">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="J76" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="L76" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="M76" s="1">
-        <v>1</v>
+        <v>0.19</v>
       </c>
       <c r="N76" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="O76" s="1">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P76" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q76" s="1">
-        <v>0.84</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B77">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
@@ -5939,24 +5692,24 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="Q77" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B78">
-        <v>615</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -5971,45 +5724,45 @@
         <v>24</v>
       </c>
       <c r="G78" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="H78" t="s">
         <v>25</v>
       </c>
       <c r="I78" s="1">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="J78" t="s">
         <v>26</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L78" t="s">
         <v>27</v>
       </c>
       <c r="M78" s="1">
-        <v>1</v>
+        <v>0.19</v>
       </c>
       <c r="N78" t="s">
         <v>28</v>
       </c>
       <c r="O78" s="1">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="P78" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="Q78" s="1">
-        <v>1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B79">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -6048,21 +5801,21 @@
         <v>28</v>
       </c>
       <c r="O79" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="Q79" s="1">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B80">
-        <v>646</v>
+        <v>386</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -6077,45 +5830,45 @@
         <v>24</v>
       </c>
       <c r="G80" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="H80" t="s">
         <v>25</v>
       </c>
       <c r="I80" s="1">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="J80" t="s">
         <v>26</v>
       </c>
       <c r="K80" s="1">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="L80" t="s">
         <v>27</v>
       </c>
       <c r="M80" s="1">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="N80" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="O80" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P80" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="Q80" s="1">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B81">
-        <v>353</v>
+        <v>799</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
@@ -6157,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q81" s="1">
         <v>1</v>
@@ -6165,13 +5918,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B82">
-        <v>681</v>
+        <v>348</v>
       </c>
       <c r="C82" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -6183,45 +5936,45 @@
         <v>24</v>
       </c>
       <c r="G82" s="1">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I82" s="1">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="K82" s="1">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="M82" s="1">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="O82" s="1">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="Q82" s="1">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B83">
-        <v>169</v>
+        <v>425</v>
       </c>
       <c r="C83" t="s">
         <v>22</v>
@@ -6257,13 +6010,13 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="Q83" s="1">
         <v>1</v>
@@ -6271,10 +6024,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B84">
-        <v>189</v>
+        <v>442</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
@@ -6289,45 +6042,45 @@
         <v>24</v>
       </c>
       <c r="G84" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>25</v>
       </c>
       <c r="I84" s="1">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>26</v>
       </c>
       <c r="K84" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L84" t="s">
         <v>27</v>
       </c>
       <c r="M84" s="1">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="N84" t="s">
         <v>28</v>
       </c>
       <c r="O84" s="1">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="Q84" s="1">
-        <v>0.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" t="s">
-        <v>155</v>
+        <v>133</v>
+      </c>
+      <c r="B85">
+        <v>72</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
@@ -6363,24 +6116,24 @@
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O85" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q85" s="1">
-        <v>1</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B86">
-        <v>275</v>
+        <v>853</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
@@ -6422,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q86" s="1">
         <v>1</v>
@@ -6430,10 +6183,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B87">
-        <v>386</v>
+        <v>474</v>
       </c>
       <c r="C87" t="s">
         <v>22</v>
@@ -6448,45 +6201,45 @@
         <v>24</v>
       </c>
       <c r="G87" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
         <v>25</v>
       </c>
       <c r="I87" s="1">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>26</v>
       </c>
       <c r="K87" s="1">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="L87" t="s">
         <v>27</v>
       </c>
       <c r="M87" s="1">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="O87" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="Q87" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B88">
-        <v>799</v>
+        <v>522</v>
       </c>
       <c r="C88" t="s">
         <v>22</v>
@@ -6528,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q88" s="1">
         <v>1</v>
@@ -6536,10 +6289,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" t="s">
-        <v>162</v>
+        <v>137</v>
+      </c>
+      <c r="B89">
+        <v>881</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
@@ -6563,36 +6316,36 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="K89" s="1">
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M89" s="1">
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O89" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="Q89" s="1">
-        <v>0.71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="B90">
-        <v>348</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
@@ -6628,13 +6381,13 @@
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="Q90" s="1">
         <v>1</v>
@@ -6642,10 +6395,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B91" t="s">
-        <v>166</v>
+        <v>139</v>
+      </c>
+      <c r="B91">
+        <v>155</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
@@ -6675,19 +6428,19 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M91" s="1">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="Q91" s="1">
         <v>1</v>
@@ -6695,10 +6448,10 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B92">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
@@ -6740,18 +6493,18 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q92" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B93">
-        <v>442</v>
+        <v>642</v>
       </c>
       <c r="C93" t="s">
         <v>22</v>
@@ -6793,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q93" s="1">
         <v>1</v>
@@ -6801,10 +6554,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B94">
-        <v>72</v>
+        <v>931</v>
       </c>
       <c r="C94" t="s">
         <v>22</v>
@@ -6843,21 +6596,21 @@
         <v>28</v>
       </c>
       <c r="O94" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q94" s="1">
-        <v>0.59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B95">
-        <v>853</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
         <v>22</v>
@@ -6899,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q95" s="1">
         <v>1</v>
@@ -6907,10 +6660,10 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="B96">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="C96" t="s">
         <v>22</v>
@@ -6925,45 +6678,45 @@
         <v>24</v>
       </c>
       <c r="G96" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="H96" t="s">
         <v>25</v>
       </c>
       <c r="I96" s="1">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="J96" t="s">
         <v>26</v>
       </c>
       <c r="K96" s="1">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L96" t="s">
         <v>27</v>
       </c>
       <c r="M96" s="1">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N96" t="s">
         <v>28</v>
       </c>
       <c r="O96" s="1">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="P96" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="Q96" s="1">
-        <v>1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B97">
-        <v>522</v>
+        <v>724</v>
       </c>
       <c r="C97" t="s">
         <v>22</v>
@@ -7005,7 +6758,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q97" s="1">
         <v>1</v>
@@ -7013,10 +6766,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B98">
-        <v>881</v>
+        <v>971</v>
       </c>
       <c r="C98" t="s">
         <v>22</v>
@@ -7058,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q98" s="1">
         <v>1</v>
@@ -7066,10 +6819,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B99">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="C99" t="s">
         <v>22</v>
@@ -7111,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q99" s="1">
         <v>1</v>
@@ -7119,10 +6872,10 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B100">
-        <v>155</v>
+        <v>556</v>
       </c>
       <c r="C100" t="s">
         <v>22</v>
@@ -7164,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q100" s="1">
         <v>1</v>
@@ -7172,10 +6925,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B101">
-        <v>489</v>
+        <v>907</v>
       </c>
       <c r="C101" t="s">
         <v>22</v>
@@ -7217,18 +6970,18 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q101" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B102">
-        <v>642</v>
+        <v>253</v>
       </c>
       <c r="C102" t="s">
         <v>22</v>
@@ -7270,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q102" s="1">
         <v>1</v>
@@ -7278,10 +7031,10 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B103">
-        <v>931</v>
+        <v>594</v>
       </c>
       <c r="C103" t="s">
         <v>22</v>
@@ -7323,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q103" s="1">
         <v>1</v>
@@ -7331,10 +7084,10 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>179</v>
-      </c>
-      <c r="B104">
-        <v>191</v>
+        <v>152</v>
+      </c>
+      <c r="B104" t="s">
+        <v>153</v>
       </c>
       <c r="C104" t="s">
         <v>22</v>
@@ -7376,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q104" s="1">
         <v>1</v>
@@ -7384,10 +7137,10 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B105">
-        <v>520</v>
+        <v>291</v>
       </c>
       <c r="C105" t="s">
         <v>22</v>
@@ -7402,45 +7155,45 @@
         <v>24</v>
       </c>
       <c r="G105" s="1">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>25</v>
       </c>
       <c r="I105" s="1">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>26</v>
       </c>
       <c r="K105" s="1">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="L105" t="s">
         <v>27</v>
       </c>
       <c r="M105" s="1">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="N105" t="s">
         <v>28</v>
       </c>
       <c r="O105" s="1">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="Q105" s="1">
-        <v>0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B106">
-        <v>724</v>
+        <v>625</v>
       </c>
       <c r="C106" t="s">
         <v>22</v>
@@ -7482,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q106" s="1">
         <v>1</v>
@@ -7490,10 +7243,10 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B107">
-        <v>971</v>
+        <v>336</v>
       </c>
       <c r="C107" t="s">
         <v>22</v>
@@ -7532,21 +7285,21 @@
         <v>28</v>
       </c>
       <c r="O107" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P107" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="Q107" s="1">
-        <v>1</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B108">
-        <v>219</v>
+        <v>658</v>
       </c>
       <c r="C108" t="s">
         <v>22</v>
@@ -7582,13 +7335,13 @@
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="O108" s="1">
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="Q108" s="1">
         <v>1</v>
@@ -7596,10 +7349,10 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B109">
-        <v>556</v>
+        <v>354</v>
       </c>
       <c r="C109" t="s">
         <v>22</v>
@@ -7641,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q109" s="1">
         <v>1</v>
@@ -7649,10 +7402,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B110">
-        <v>907</v>
+        <v>703</v>
       </c>
       <c r="C110" t="s">
         <v>22</v>
@@ -7694,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q110" s="1">
         <v>1</v>
@@ -7702,11 +7455,11 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111">
         <v>186</v>
       </c>
-      <c r="B111">
-        <v>253</v>
-      </c>
       <c r="C111" t="s">
         <v>22</v>
       </c>
@@ -7747,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Q111" s="1">
         <v>1</v>
@@ -7755,13 +7508,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B112">
-        <v>594</v>
+        <v>737</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -7773,45 +7526,45 @@
         <v>24</v>
       </c>
       <c r="G112" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="H112" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I112" s="1">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J112" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="K112" s="1">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L112" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="M112" s="1">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="N112" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O112" s="1">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="P112" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="Q112" s="1">
-        <v>1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>188</v>
-      </c>
-      <c r="B113" t="s">
-        <v>189</v>
+        <v>168</v>
+      </c>
+      <c r="B113">
+        <v>276</v>
       </c>
       <c r="C113" t="s">
         <v>22</v>
@@ -7853,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q113" s="1">
         <v>1</v>
@@ -7861,10 +7614,10 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B114">
-        <v>291</v>
+        <v>389</v>
       </c>
       <c r="C114" t="s">
         <v>22</v>
@@ -7906,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q114" s="1">
         <v>1</v>
@@ -7914,10 +7667,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B115">
-        <v>625</v>
+        <v>809</v>
       </c>
       <c r="C115" t="s">
         <v>22</v>
@@ -7959,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q115" s="1">
         <v>1</v>
@@ -7967,10 +7720,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B116">
-        <v>336</v>
+        <v>411</v>
       </c>
       <c r="C116" t="s">
         <v>22</v>
@@ -8009,21 +7762,21 @@
         <v>28</v>
       </c>
       <c r="O116" s="1">
+        <v>1</v>
+      </c>
+      <c r="P116" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q116" s="1">
         <v>0.99</v>
-      </c>
-      <c r="P116" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q116" s="1">
-        <v>0.93</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B117">
-        <v>658</v>
+        <v>828</v>
       </c>
       <c r="C117" t="s">
         <v>22</v>
@@ -8059,27 +7812,27 @@
         <v>1</v>
       </c>
       <c r="N117" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="O117" s="1">
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="Q117" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B118">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -8091,45 +7844,45 @@
         <v>24</v>
       </c>
       <c r="G118" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H118" t="s">
         <v>25</v>
       </c>
       <c r="I118" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="J118" t="s">
         <v>26</v>
       </c>
       <c r="K118" s="1">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="L118" t="s">
         <v>27</v>
       </c>
       <c r="M118" s="1">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="N118" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="O118" s="1">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="P118" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="Q118" s="1">
-        <v>1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B119">
-        <v>703</v>
+        <v>443</v>
       </c>
       <c r="C119" t="s">
         <v>22</v>
@@ -8171,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q119" s="1">
         <v>1</v>
@@ -8179,10 +7932,10 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B120">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="C120" t="s">
         <v>22</v>
@@ -8224,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="Q120" s="1">
         <v>1</v>
@@ -8232,13 +7985,13 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B121">
-        <v>737</v>
+        <v>854</v>
       </c>
       <c r="C121" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -8250,45 +8003,45 @@
         <v>24</v>
       </c>
       <c r="G121" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="I121" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="K121" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="L121" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="M121" s="1">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="N121" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="O121" s="1">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="Q121" s="1">
-        <v>0.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>204</v>
-      </c>
-      <c r="B122" t="s">
-        <v>205</v>
+        <v>179</v>
+      </c>
+      <c r="B122">
+        <v>476</v>
       </c>
       <c r="C122" t="s">
         <v>22</v>
@@ -8312,36 +8065,36 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="K122" s="1">
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M122" s="1">
         <v>1</v>
       </c>
       <c r="N122" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O122" s="1">
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="Q122" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B123">
-        <v>276</v>
+        <v>526</v>
       </c>
       <c r="C123" t="s">
         <v>22</v>
@@ -8383,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q123" s="1">
         <v>1</v>
@@ -8391,10 +8144,10 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B124">
-        <v>389</v>
+        <v>883</v>
       </c>
       <c r="C124" t="s">
         <v>22</v>
@@ -8436,18 +8189,18 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q124" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B125">
-        <v>809</v>
+        <v>96</v>
       </c>
       <c r="C125" t="s">
         <v>22</v>
@@ -8489,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q125" s="1">
         <v>1</v>
@@ -8497,10 +8250,10 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>209</v>
-      </c>
-      <c r="B126" t="s">
-        <v>210</v>
+        <v>183</v>
+      </c>
+      <c r="B126">
+        <v>162</v>
       </c>
       <c r="C126" t="s">
         <v>22</v>
@@ -8530,19 +8283,19 @@
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M126" s="1">
         <v>1</v>
       </c>
       <c r="N126" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O126" s="1">
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="Q126" s="1">
         <v>1</v>
@@ -8550,10 +8303,10 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B127">
-        <v>411</v>
+        <v>496</v>
       </c>
       <c r="C127" t="s">
         <v>22</v>
@@ -8595,18 +8348,18 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q127" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B128">
-        <v>828</v>
+        <v>664</v>
       </c>
       <c r="C128" t="s">
         <v>22</v>
@@ -8648,18 +8401,18 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q128" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>213</v>
-      </c>
-      <c r="B129" t="s">
-        <v>214</v>
+        <v>186</v>
+      </c>
+      <c r="B129">
+        <v>938</v>
       </c>
       <c r="C129" t="s">
         <v>22</v>
@@ -8677,31 +8430,31 @@
         <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="I129" s="1">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="K129" s="1">
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="M129" s="1">
         <v>1</v>
       </c>
       <c r="N129" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="O129" s="1">
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="Q129" s="1">
         <v>1</v>
@@ -8709,13 +8462,13 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B130">
-        <v>434</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
@@ -8727,45 +8480,45 @@
         <v>24</v>
       </c>
       <c r="G130" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>25</v>
       </c>
       <c r="I130" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>26</v>
       </c>
       <c r="K130" s="1">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="L130" t="s">
         <v>27</v>
       </c>
       <c r="M130" s="1">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="N130" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="O130" s="1">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="Q130" s="1">
-        <v>0.64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="B131">
-        <v>443</v>
+        <v>525</v>
       </c>
       <c r="C131" t="s">
         <v>22</v>
@@ -8807,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q131" s="1">
         <v>1</v>
@@ -8815,10 +8568,10 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="B132">
-        <v>79</v>
+        <v>739</v>
       </c>
       <c r="C132" t="s">
         <v>22</v>
@@ -8860,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q132" s="1">
         <v>1</v>
@@ -8868,10 +8621,10 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B133">
-        <v>854</v>
+        <v>972</v>
       </c>
       <c r="C133" t="s">
         <v>22</v>
@@ -8913,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q133" s="1">
         <v>1</v>
@@ -8921,10 +8674,10 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B134">
-        <v>476</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s">
         <v>22</v>
@@ -8963,21 +8716,21 @@
         <v>28</v>
       </c>
       <c r="O134" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P134" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="Q134" s="1">
-        <v>0.99</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="B135">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="C135" t="s">
         <v>22</v>
@@ -9016,21 +8769,21 @@
         <v>28</v>
       </c>
       <c r="O135" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="P135" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="Q135" s="1">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="B136">
-        <v>883</v>
+        <v>916</v>
       </c>
       <c r="C136" t="s">
         <v>22</v>
@@ -9066,13 +8819,13 @@
         <v>1</v>
       </c>
       <c r="N136" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O136" s="1">
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="Q136" s="1">
         <v>0.99</v>
@@ -9080,10 +8833,10 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B137">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="C137" t="s">
         <v>22</v>
@@ -9125,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q137" s="1">
         <v>1</v>
@@ -9133,10 +8886,10 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="B138">
-        <v>162</v>
+        <v>598</v>
       </c>
       <c r="C138" t="s">
         <v>22</v>
@@ -9151,45 +8904,45 @@
         <v>24</v>
       </c>
       <c r="G138" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="H138" t="s">
         <v>25</v>
       </c>
       <c r="I138" s="1">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="J138" t="s">
         <v>26</v>
       </c>
       <c r="K138" s="1">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="L138" t="s">
         <v>27</v>
       </c>
       <c r="M138" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N138" t="s">
         <v>28</v>
       </c>
       <c r="O138" s="1">
-        <v>1</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P138" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="Q138" s="1">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="B139">
-        <v>496</v>
+        <v>292</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
@@ -9231,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q139" s="1">
         <v>1</v>
@@ -9239,10 +8992,10 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B140">
-        <v>664</v>
+        <v>627</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -9284,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q140" s="1">
         <v>1</v>
@@ -9292,10 +9045,10 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B141">
-        <v>938</v>
+        <v>337</v>
       </c>
       <c r="C141" t="s">
         <v>22</v>
@@ -9337,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q141" s="1">
         <v>1</v>
@@ -9345,10 +9098,10 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B142">
-        <v>197</v>
+        <v>660</v>
       </c>
       <c r="C142" t="s">
         <v>22</v>
@@ -9363,45 +9116,45 @@
         <v>24</v>
       </c>
       <c r="G142" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H142" t="s">
         <v>25</v>
       </c>
       <c r="I142" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J142" t="s">
         <v>26</v>
       </c>
       <c r="K142" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="L142" t="s">
         <v>27</v>
       </c>
       <c r="M142" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="N142" t="s">
         <v>28</v>
       </c>
       <c r="O142" s="1">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="P142" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="Q142" s="1">
-        <v>1</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="B143">
-        <v>525</v>
+        <v>355</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
@@ -9443,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q143" s="1">
         <v>1</v>
@@ -9451,10 +9204,10 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="B144">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
@@ -9496,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q144" s="1">
         <v>1</v>
@@ -9504,10 +9257,10 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="B145">
-        <v>972</v>
+        <v>193</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
@@ -9549,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q145" s="1">
         <v>1</v>
@@ -9557,10 +9310,10 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B146">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C146" t="s">
         <v>22</v>
@@ -9599,21 +9352,21 @@
         <v>28</v>
       </c>
       <c r="O146" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="Q146" s="1">
-        <v>0.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B147">
-        <v>559</v>
+        <v>743</v>
       </c>
       <c r="C147" t="s">
         <v>22</v>
@@ -9652,21 +9405,21 @@
         <v>28</v>
       </c>
       <c r="O147" s="1">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="P147" t="s">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="Q147" s="1">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B148">
-        <v>916</v>
+        <v>285</v>
       </c>
       <c r="C148" t="s">
         <v>22</v>
@@ -9702,24 +9455,24 @@
         <v>1</v>
       </c>
       <c r="N148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O148" s="1">
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="Q148" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B149">
-        <v>256</v>
+        <v>392</v>
       </c>
       <c r="C149" t="s">
         <v>22</v>
@@ -9761,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q149" s="1">
         <v>1</v>
@@ -9769,10 +9522,10 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B150">
-        <v>598</v>
+        <v>811</v>
       </c>
       <c r="C150" t="s">
         <v>22</v>
@@ -9787,45 +9540,45 @@
         <v>24</v>
       </c>
       <c r="G150" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>25</v>
       </c>
       <c r="I150" s="1">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
         <v>26</v>
       </c>
       <c r="K150" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="L150" t="s">
         <v>27</v>
       </c>
       <c r="M150" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N150" t="s">
         <v>28</v>
       </c>
       <c r="O150" s="1">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="Q150" s="1">
-        <v>0.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="B151">
-        <v>292</v>
+        <v>416</v>
       </c>
       <c r="C151" t="s">
         <v>22</v>
@@ -9867,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q151" s="1">
         <v>1</v>
@@ -9875,10 +9628,10 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="B152">
-        <v>627</v>
+        <v>829</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
@@ -9914,13 +9667,13 @@
         <v>1</v>
       </c>
       <c r="N152" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O152" s="1">
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="Q152" s="1">
         <v>1</v>
@@ -9928,10 +9681,10 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="B153">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -9973,18 +9726,18 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q153" s="1">
-        <v>1</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B154">
-        <v>660</v>
+        <v>450</v>
       </c>
       <c r="C154" t="s">
         <v>22</v>
@@ -9999,45 +9752,45 @@
         <v>24</v>
       </c>
       <c r="G154" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>25</v>
       </c>
       <c r="I154" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>26</v>
       </c>
       <c r="K154" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="L154" t="s">
         <v>27</v>
       </c>
       <c r="M154" s="1">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="N154" t="s">
         <v>28</v>
       </c>
       <c r="O154" s="1">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="Q154" s="1">
-        <v>0.61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B155">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
@@ -10079,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q155" s="1">
         <v>1</v>
@@ -10087,10 +9840,10 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B156">
-        <v>704</v>
+        <v>859</v>
       </c>
       <c r="C156" t="s">
         <v>22</v>
@@ -10132,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q156" s="1">
         <v>1</v>
@@ -10140,10 +9893,10 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="B157">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C157" t="s">
         <v>22</v>
@@ -10185,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q157" s="1">
         <v>1</v>
@@ -10193,10 +9946,10 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="B158">
-        <v>213</v>
+        <v>480</v>
       </c>
       <c r="C158" t="s">
         <v>22</v>
@@ -10238,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q158" s="1">
         <v>1</v>
@@ -10246,10 +9999,10 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="B159">
-        <v>743</v>
+        <v>535</v>
       </c>
       <c r="C159" t="s">
         <v>22</v>
@@ -10285,24 +10038,24 @@
         <v>1</v>
       </c>
       <c r="N159" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O159" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="Q159" s="1">
-        <v>0.77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>254</v>
-      </c>
-      <c r="B160" t="s">
-        <v>255</v>
+        <v>223</v>
+      </c>
+      <c r="B160">
+        <v>888</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
@@ -10326,36 +10079,36 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K160" s="1">
         <v>1</v>
       </c>
       <c r="L160" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M160" s="1">
         <v>1</v>
       </c>
       <c r="N160" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="O160" s="1">
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q160" s="1">
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B161">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -10397,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q161" s="1">
         <v>1</v>
@@ -10405,10 +10158,10 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B162">
-        <v>392</v>
+        <v>497</v>
       </c>
       <c r="C162" t="s">
         <v>22</v>
@@ -10450,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q162" s="1">
         <v>1</v>
@@ -10458,10 +10211,10 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B163">
-        <v>811</v>
+        <v>939</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
@@ -10503,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q163" s="1">
         <v>1</v>
@@ -10511,10 +10264,10 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>259</v>
-      </c>
-      <c r="B164" t="s">
-        <v>260</v>
+        <v>227</v>
+      </c>
+      <c r="B164">
+        <v>198</v>
       </c>
       <c r="C164" t="s">
         <v>22</v>
@@ -10532,31 +10285,31 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I164" s="1">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K164" s="1">
         <v>1</v>
       </c>
       <c r="L164" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M164" s="1">
         <v>1</v>
       </c>
       <c r="N164" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O164" s="1">
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="Q164" s="1">
         <v>1</v>
@@ -10564,10 +10317,10 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="B165">
-        <v>416</v>
+        <v>528</v>
       </c>
       <c r="C165" t="s">
         <v>22</v>
@@ -10609,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q165" s="1">
         <v>1</v>
@@ -10617,10 +10370,10 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="B166">
-        <v>829</v>
+        <v>749</v>
       </c>
       <c r="C166" t="s">
         <v>22</v>
@@ -10662,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="Q166" s="1">
         <v>1</v>
@@ -10670,10 +10423,10 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>263</v>
-      </c>
-      <c r="B167" t="s">
-        <v>264</v>
+        <v>230</v>
+      </c>
+      <c r="B167">
+        <v>983</v>
       </c>
       <c r="C167" t="s">
         <v>22</v>
@@ -10703,19 +10456,19 @@
         <v>1</v>
       </c>
       <c r="L167" t="s">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="M167" s="1">
         <v>1</v>
       </c>
       <c r="N167" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="O167" s="1">
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="Q167" s="1">
         <v>1</v>
@@ -10723,10 +10476,10 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="B168">
-        <v>437</v>
+        <v>226</v>
       </c>
       <c r="C168" t="s">
         <v>22</v>
@@ -10768,18 +10521,18 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q168" s="1">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="B169">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="C169" t="s">
         <v>22</v>
@@ -10821,18 +10574,18 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="Q169" s="1">
-        <v>1</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="B170">
-        <v>84</v>
+        <v>932</v>
       </c>
       <c r="C170" t="s">
         <v>22</v>
@@ -10874,18 +10627,18 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q170" s="1">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="B171">
-        <v>859</v>
+        <v>260</v>
       </c>
       <c r="C171" t="s">
         <v>22</v>
@@ -10927,18 +10680,18 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q171" s="1">
-        <v>1</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="B172">
-        <v>100</v>
+        <v>599</v>
       </c>
       <c r="C172" t="s">
         <v>22</v>
@@ -10980,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q172" s="1">
         <v>1</v>
@@ -10988,10 +10741,10 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="B173">
-        <v>480</v>
+        <v>294</v>
       </c>
       <c r="C173" t="s">
         <v>22</v>
@@ -11033,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q173" s="1">
         <v>1</v>
@@ -11041,10 +10794,10 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="B174">
-        <v>535</v>
+        <v>630</v>
       </c>
       <c r="C174" t="s">
         <v>22</v>
@@ -11080,13 +10833,13 @@
         <v>1</v>
       </c>
       <c r="N174" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O174" s="1">
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q174" s="1">
         <v>1</v>
@@ -11094,10 +10847,10 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="B175">
-        <v>888</v>
+        <v>339</v>
       </c>
       <c r="C175" t="s">
         <v>22</v>
@@ -11139,18 +10892,18 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="Q175" s="1">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B176">
-        <v>163</v>
+        <v>662</v>
       </c>
       <c r="C176" t="s">
         <v>22</v>
@@ -11192,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q176" s="1">
         <v>1</v>
@@ -11200,10 +10953,10 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="B177">
-        <v>497</v>
+        <v>357</v>
       </c>
       <c r="C177" t="s">
         <v>22</v>
@@ -11242,21 +10995,21 @@
         <v>28</v>
       </c>
       <c r="O177" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="P177" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="Q177" s="1">
-        <v>1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B178">
-        <v>939</v>
+        <v>707</v>
       </c>
       <c r="C178" t="s">
         <v>22</v>
@@ -11298,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q178" s="1">
         <v>1</v>
@@ -11306,10 +11059,10 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B179">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C179" t="s">
         <v>22</v>
@@ -11333,25 +11086,25 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="K179" s="1">
         <v>1</v>
       </c>
       <c r="L179" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="M179" s="1">
         <v>1</v>
       </c>
       <c r="N179" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="O179" s="1">
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q179" s="1">
         <v>1</v>
@@ -11359,10 +11112,10 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B180">
-        <v>528</v>
+        <v>365</v>
       </c>
       <c r="C180" t="s">
         <v>22</v>
@@ -11404,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q180" s="1">
         <v>1</v>
@@ -11412,10 +11165,10 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B181">
-        <v>749</v>
+        <v>297</v>
       </c>
       <c r="C181" t="s">
         <v>22</v>
@@ -11451,13 +11204,13 @@
         <v>1</v>
       </c>
       <c r="N181" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O181" s="1">
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q181" s="1">
         <v>1</v>
@@ -11465,10 +11218,10 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="B182">
-        <v>983</v>
+        <v>401</v>
       </c>
       <c r="C182" t="s">
         <v>22</v>
@@ -11510,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q182" s="1">
         <v>1</v>
@@ -11518,10 +11271,10 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="B183">
-        <v>226</v>
+        <v>812</v>
       </c>
       <c r="C183" t="s">
         <v>22</v>
@@ -11563,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q183" s="1">
         <v>1</v>
@@ -11571,10 +11324,10 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B184">
-        <v>562</v>
+        <v>366</v>
       </c>
       <c r="C184" t="s">
         <v>22</v>
@@ -11616,18 +11369,18 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q184" s="1">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="B185">
-        <v>932</v>
+        <v>418</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
@@ -11663,24 +11416,24 @@
         <v>1</v>
       </c>
       <c r="N185" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O185" s="1">
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q185" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="B186">
-        <v>260</v>
+        <v>830</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
@@ -11722,18 +11475,18 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q186" s="1">
-        <v>0.69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="B187">
-        <v>599</v>
+        <v>444</v>
       </c>
       <c r="C187" t="s">
         <v>22</v>
@@ -11769,13 +11522,13 @@
         <v>1</v>
       </c>
       <c r="N187" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O187" s="1">
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q187" s="1">
         <v>1</v>
@@ -11783,10 +11536,10 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="B188">
-        <v>294</v>
+        <v>452</v>
       </c>
       <c r="C188" t="s">
         <v>22</v>
@@ -11828,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q188" s="1">
         <v>1</v>
@@ -11836,10 +11589,10 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="B189">
-        <v>630</v>
+        <v>860</v>
       </c>
       <c r="C189" t="s">
         <v>22</v>
@@ -11881,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q189" s="1">
         <v>1</v>
@@ -11889,10 +11642,10 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="B190">
-        <v>339</v>
+        <v>101</v>
       </c>
       <c r="C190" t="s">
         <v>22</v>
@@ -11934,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="Q190" s="1">
         <v>1</v>
@@ -11942,10 +11695,10 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="B191">
-        <v>662</v>
+        <v>481</v>
       </c>
       <c r="C191" t="s">
         <v>22</v>
@@ -11987,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q191" s="1">
         <v>1</v>
@@ -11995,10 +11748,10 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B192">
-        <v>357</v>
+        <v>547</v>
       </c>
       <c r="C192" t="s">
         <v>22</v>
@@ -12037,21 +11790,21 @@
         <v>28</v>
       </c>
       <c r="O192" s="1">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="P192" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="Q192" s="1">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B193">
-        <v>707</v>
+        <v>164</v>
       </c>
       <c r="C193" t="s">
         <v>22</v>
@@ -12093,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q193" s="1">
         <v>1</v>
@@ -12101,10 +11854,10 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="B194">
-        <v>207</v>
+        <v>504</v>
       </c>
       <c r="C194" t="s">
         <v>22</v>
@@ -12128,25 +11881,25 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="K194" s="1">
         <v>1</v>
       </c>
       <c r="L194" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M194" s="1">
         <v>1</v>
       </c>
       <c r="N194" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O194" s="1">
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Q194" s="1">
         <v>1</v>
@@ -12154,10 +11907,10 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="B195">
-        <v>365</v>
+        <v>667</v>
       </c>
       <c r="C195" t="s">
         <v>22</v>
@@ -12199,7 +11952,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q195" s="1">
         <v>1</v>
@@ -12207,10 +11960,10 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>297</v>
-      </c>
-      <c r="B196" t="s">
-        <v>298</v>
+        <v>260</v>
+      </c>
+      <c r="B196">
+        <v>941</v>
       </c>
       <c r="C196" t="s">
         <v>22</v>
@@ -12240,19 +11993,19 @@
         <v>1</v>
       </c>
       <c r="L196" t="s">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="M196" s="1">
         <v>1</v>
       </c>
       <c r="N196" t="s">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="O196" s="1">
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="Q196" s="1">
         <v>1</v>
@@ -12260,10 +12013,10 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="B197">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s">
         <v>22</v>
@@ -12305,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q197" s="1">
         <v>1</v>
@@ -12313,10 +12066,10 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="B198">
-        <v>401</v>
+        <v>537</v>
       </c>
       <c r="C198" t="s">
         <v>22</v>
@@ -12358,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Q198" s="1">
         <v>1</v>
@@ -12366,10 +12119,10 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="B199">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="C199" t="s">
         <v>22</v>
@@ -12405,24 +12158,24 @@
         <v>1</v>
       </c>
       <c r="N199" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="O199" s="1">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="P199" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="Q199" s="1">
-        <v>1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>305</v>
-      </c>
-      <c r="B200" t="s">
-        <v>306</v>
+        <v>265</v>
+      </c>
+      <c r="B200">
+        <v>985</v>
       </c>
       <c r="C200" t="s">
         <v>22</v>
@@ -12440,42 +12193,42 @@
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I200" s="1">
         <v>1</v>
       </c>
       <c r="J200" t="s">
+        <v>26</v>
+      </c>
+      <c r="K200" s="1">
+        <v>1</v>
+      </c>
+      <c r="L200" t="s">
+        <v>27</v>
+      </c>
+      <c r="M200" s="1">
+        <v>1</v>
+      </c>
+      <c r="N200" t="s">
+        <v>28</v>
+      </c>
+      <c r="O200" s="1">
+        <v>1</v>
+      </c>
+      <c r="P200" t="s">
         <v>36</v>
       </c>
-      <c r="K200" s="1">
-        <v>1</v>
-      </c>
-      <c r="L200" t="s">
-        <v>37</v>
-      </c>
-      <c r="M200" s="1">
-        <v>1</v>
-      </c>
-      <c r="N200" t="s">
-        <v>38</v>
-      </c>
-      <c r="O200" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="P200" t="s">
-        <v>39</v>
-      </c>
       <c r="Q200" s="1">
-        <v>0.52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="B201">
-        <v>366</v>
+        <v>227</v>
       </c>
       <c r="C201" t="s">
         <v>22</v>
@@ -12517,18 +12270,18 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="Q201" s="1">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="B202">
-        <v>418</v>
+        <v>568</v>
       </c>
       <c r="C202" t="s">
         <v>22</v>
@@ -12564,24 +12317,24 @@
         <v>1</v>
       </c>
       <c r="N202" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O202" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="P202" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="Q202" s="1">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="B203">
-        <v>830</v>
+        <v>974</v>
       </c>
       <c r="C203" t="s">
         <v>22</v>
@@ -12623,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q203" s="1">
         <v>1</v>
@@ -12631,10 +12384,10 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>310</v>
-      </c>
-      <c r="B204" t="s">
-        <v>311</v>
+        <v>269</v>
+      </c>
+      <c r="B204">
+        <v>261</v>
       </c>
       <c r="C204" t="s">
         <v>22</v>
@@ -12658,36 +12411,36 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="K204" s="1">
         <v>1</v>
       </c>
       <c r="L204" t="s">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="M204" s="1">
         <v>1</v>
       </c>
       <c r="N204" t="s">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="O204" s="1">
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>314</v>
+        <v>84</v>
       </c>
       <c r="Q204" s="1">
-        <v>1</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="B205">
-        <v>444</v>
+        <v>295</v>
       </c>
       <c r="C205" t="s">
         <v>22</v>
@@ -12723,24 +12476,24 @@
         <v>1</v>
       </c>
       <c r="N205" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O205" s="1">
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q205" s="1">
-        <v>1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="B206">
-        <v>452</v>
+        <v>631</v>
       </c>
       <c r="C206" t="s">
         <v>22</v>
@@ -12782,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q206" s="1">
         <v>1</v>
@@ -12790,10 +12543,10 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="B207">
-        <v>860</v>
+        <v>342</v>
       </c>
       <c r="C207" t="s">
         <v>22</v>
@@ -12835,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q207" s="1">
         <v>1</v>
@@ -12843,10 +12596,10 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="B208">
-        <v>101</v>
+        <v>663</v>
       </c>
       <c r="C208" t="s">
         <v>22</v>
@@ -12888,18 +12641,18 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q208" s="1">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="B209">
-        <v>481</v>
+        <v>362</v>
       </c>
       <c r="C209" t="s">
         <v>22</v>
@@ -12941,7 +12694,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q209" s="1">
         <v>1</v>
@@ -12949,10 +12702,10 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="B210">
-        <v>547</v>
+        <v>208</v>
       </c>
       <c r="C210" t="s">
         <v>22</v>
@@ -12991,24 +12744,24 @@
         <v>28</v>
       </c>
       <c r="O210" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="Q210" s="1">
-        <v>0.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="B211">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
@@ -13020,45 +12773,45 @@
         <v>24</v>
       </c>
       <c r="G211" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I211" s="1">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J211" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="K211" s="1">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="L211" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="M211" s="1">
-        <v>1</v>
+        <v>0.19</v>
       </c>
       <c r="N211" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="O211" s="1">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="P211" t="s">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="Q211" s="1">
-        <v>1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="B212">
-        <v>504</v>
+        <v>309</v>
       </c>
       <c r="C212" t="s">
         <v>22</v>
@@ -13097,21 +12850,21 @@
         <v>28</v>
       </c>
       <c r="O212" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P212" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="Q212" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="B213">
-        <v>667</v>
+        <v>402</v>
       </c>
       <c r="C213" t="s">
         <v>22</v>
@@ -13153,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q213" s="1">
         <v>1</v>
@@ -13161,10 +12914,10 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="B214">
-        <v>941</v>
+        <v>813</v>
       </c>
       <c r="C214" t="s">
         <v>22</v>
@@ -13200,13 +12953,13 @@
         <v>1</v>
       </c>
       <c r="N214" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O214" s="1">
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q214" s="1">
         <v>1</v>
@@ -13214,10 +12967,10 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="B215">
-        <v>199</v>
+        <v>382</v>
       </c>
       <c r="C215" t="s">
         <v>22</v>
@@ -13259,18 +13012,18 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q215" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="B216">
-        <v>537</v>
+        <v>419</v>
       </c>
       <c r="C216" t="s">
         <v>22</v>
@@ -13309,21 +13062,21 @@
         <v>28</v>
       </c>
       <c r="O216" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="P216" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="Q216" s="1">
-        <v>1</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="B217">
-        <v>789</v>
+        <v>833</v>
       </c>
       <c r="C217" t="s">
         <v>22</v>
@@ -13359,24 +13112,24 @@
         <v>1</v>
       </c>
       <c r="N217" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="O217" s="1">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="Q217" s="1">
-        <v>0.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="B218">
-        <v>985</v>
+        <v>457</v>
       </c>
       <c r="C218" t="s">
         <v>22</v>
@@ -13418,18 +13171,18 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="Q218" s="1">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="B219">
-        <v>227</v>
+        <v>477</v>
       </c>
       <c r="C219" t="s">
         <v>22</v>
@@ -13471,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q219" s="1">
         <v>1</v>
@@ -13479,10 +13232,10 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="B220">
-        <v>568</v>
+        <v>870</v>
       </c>
       <c r="C220" t="s">
         <v>22</v>
@@ -13521,21 +13274,21 @@
         <v>28</v>
       </c>
       <c r="O220" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q220" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="B221">
-        <v>974</v>
+        <v>87</v>
       </c>
       <c r="C221" t="s">
         <v>22</v>
@@ -13577,18 +13330,18 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q221" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="B222">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="C222" t="s">
         <v>22</v>
@@ -13630,18 +13383,18 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Q222" s="1">
-        <v>0.48</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="B223">
-        <v>295</v>
+        <v>482</v>
       </c>
       <c r="C223" t="s">
         <v>22</v>
@@ -13683,18 +13436,18 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q223" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="B224">
-        <v>631</v>
+        <v>566</v>
       </c>
       <c r="C224" t="s">
         <v>22</v>
@@ -13736,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q224" s="1">
         <v>1</v>
@@ -13744,10 +13497,10 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="B225">
-        <v>342</v>
+        <v>891</v>
       </c>
       <c r="C225" t="s">
         <v>22</v>
@@ -13789,7 +13542,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q225" s="1">
         <v>1</v>
@@ -13797,10 +13550,10 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="B226">
-        <v>663</v>
+        <v>165</v>
       </c>
       <c r="C226" t="s">
         <v>22</v>
@@ -13842,18 +13595,18 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="Q226" s="1">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="B227">
-        <v>362</v>
+        <v>507</v>
       </c>
       <c r="C227" t="s">
         <v>22</v>
@@ -13892,21 +13645,21 @@
         <v>28</v>
       </c>
       <c r="O227" s="1">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="P227" t="s">
-        <v>43</v>
+        <v>296</v>
       </c>
       <c r="Q227" s="1">
-        <v>1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="B228">
-        <v>208</v>
+        <v>668</v>
       </c>
       <c r="C228" t="s">
         <v>22</v>
@@ -13948,7 +13701,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q228" s="1">
         <v>1</v>
@@ -13956,13 +13709,13 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="B229">
-        <v>367</v>
+        <v>944</v>
       </c>
       <c r="C229" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D229" t="s">
         <v>23</v>
@@ -13974,48 +13727,48 @@
         <v>24</v>
       </c>
       <c r="G229" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I229" s="1">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="K229" s="1">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="L229" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="M229" s="1">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="N229" t="s">
-        <v>341</v>
+        <v>28</v>
       </c>
       <c r="O229" s="1">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>342</v>
+        <v>36</v>
       </c>
       <c r="Q229" s="1">
-        <v>0.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>343</v>
-      </c>
-      <c r="B230" t="s">
-        <v>344</v>
+        <v>299</v>
+      </c>
+      <c r="B230">
+        <v>212</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D230" t="s">
         <v>23</v>
@@ -14027,45 +13780,45 @@
         <v>24</v>
       </c>
       <c r="G230" s="1">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="H230" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="I230" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="J230" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="K230" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L230" t="s">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="M230" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="N230" t="s">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c r="O230" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="P230" t="s">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="Q230" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="B231">
-        <v>309</v>
+        <v>543</v>
       </c>
       <c r="C231" t="s">
         <v>22</v>
@@ -14104,21 +13857,21 @@
         <v>28</v>
       </c>
       <c r="O231" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="Q231" s="1">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="B232">
-        <v>402</v>
+        <v>810</v>
       </c>
       <c r="C232" t="s">
         <v>22</v>
@@ -14160,7 +13913,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q232" s="1">
         <v>1</v>
@@ -14168,10 +13921,10 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="B233">
-        <v>813</v>
+        <v>986</v>
       </c>
       <c r="C233" t="s">
         <v>22</v>
@@ -14207,13 +13960,13 @@
         <v>1</v>
       </c>
       <c r="N233" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O233" s="1">
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q233" s="1">
         <v>1</v>
@@ -14221,13 +13974,13 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>348</v>
-      </c>
-      <c r="B234" t="s">
-        <v>349</v>
+        <v>308</v>
+      </c>
+      <c r="B234">
+        <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D234" t="s">
         <v>23</v>
@@ -14239,45 +13992,45 @@
         <v>24</v>
       </c>
       <c r="G234" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="I234" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>351</v>
+        <v>26</v>
       </c>
       <c r="K234" s="1">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="L234" t="s">
-        <v>352</v>
+        <v>27</v>
       </c>
       <c r="M234" s="1">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="N234" t="s">
-        <v>353</v>
+        <v>31</v>
       </c>
       <c r="O234" s="1">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>354</v>
+        <v>64</v>
       </c>
       <c r="Q234" s="1">
-        <v>0.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="B235">
-        <v>382</v>
+        <v>975</v>
       </c>
       <c r="C235" t="s">
         <v>22</v>
@@ -14319,18 +14072,18 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q235" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="B236">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="C236" t="s">
         <v>22</v>
@@ -14369,21 +14122,21 @@
         <v>28</v>
       </c>
       <c r="O236" s="1">
+        <v>1</v>
+      </c>
+      <c r="P236" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q236" s="1">
         <v>0.98</v>
-      </c>
-      <c r="P236" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q236" s="1">
-        <v>0.66</v>
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="B237">
-        <v>833</v>
+        <v>608</v>
       </c>
       <c r="C237" t="s">
         <v>22</v>
@@ -14419,24 +14172,24 @@
         <v>1</v>
       </c>
       <c r="N237" t="s">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="O237" s="1">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="P237" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="Q237" s="1">
-        <v>1</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>359</v>
-      </c>
-      <c r="B238" t="s">
-        <v>360</v>
+        <v>314</v>
+      </c>
+      <c r="B238">
+        <v>298</v>
       </c>
       <c r="C238" t="s">
         <v>22</v>
@@ -14454,42 +14207,42 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I238" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>361</v>
+        <v>26</v>
       </c>
       <c r="K238" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="L238" t="s">
-        <v>362</v>
+        <v>27</v>
       </c>
       <c r="M238" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="N238" t="s">
-        <v>363</v>
+        <v>31</v>
       </c>
       <c r="O238" s="1">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>364</v>
+        <v>32</v>
       </c>
       <c r="Q238" s="1">
-        <v>0.37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="B239">
-        <v>457</v>
+        <v>632</v>
       </c>
       <c r="C239" t="s">
         <v>22</v>
@@ -14531,18 +14284,18 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q239" s="1">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="B240">
-        <v>477</v>
+        <v>347</v>
       </c>
       <c r="C240" t="s">
         <v>22</v>
@@ -14578,13 +14331,13 @@
         <v>1</v>
       </c>
       <c r="N240" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O240" s="1">
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q240" s="1">
         <v>1</v>
@@ -14592,10 +14345,10 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="B241">
-        <v>870</v>
+        <v>665</v>
       </c>
       <c r="C241" t="s">
         <v>22</v>
@@ -14637,7 +14390,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q241" s="1">
         <v>1</v>
@@ -14645,10 +14398,10 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="B242">
-        <v>87</v>
+        <v>363</v>
       </c>
       <c r="C242" t="s">
         <v>22</v>
@@ -14690,18 +14443,18 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q242" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="B243">
-        <v>103</v>
+        <v>722</v>
       </c>
       <c r="C243" t="s">
         <v>22</v>
@@ -14743,18 +14496,18 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="Q243" s="1">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="B244">
-        <v>482</v>
+        <v>238</v>
       </c>
       <c r="C244" t="s">
         <v>22</v>
@@ -14784,19 +14537,19 @@
         <v>1</v>
       </c>
       <c r="L244" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="M244" s="1">
         <v>1</v>
       </c>
       <c r="N244" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="O244" s="1">
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="Q244" s="1">
         <v>1</v>
@@ -14804,10 +14557,10 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="B245">
-        <v>566</v>
+        <v>377</v>
       </c>
       <c r="C245" t="s">
         <v>22</v>
@@ -14843,13 +14596,13 @@
         <v>1</v>
       </c>
       <c r="N245" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O245" s="1">
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q245" s="1">
         <v>1</v>
@@ -14857,10 +14610,10 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B246">
-        <v>891</v>
+        <v>774</v>
       </c>
       <c r="C246" t="s">
         <v>22</v>
@@ -14902,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q246" s="1">
         <v>1</v>
@@ -14910,10 +14663,10 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="B247">
-        <v>165</v>
+        <v>313</v>
       </c>
       <c r="C247" t="s">
         <v>22</v>
@@ -14952,21 +14705,21 @@
         <v>28</v>
       </c>
       <c r="O247" s="1">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="P247" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="Q247" s="1">
-        <v>0.99</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="B248">
-        <v>507</v>
+        <v>404</v>
       </c>
       <c r="C248" t="s">
         <v>22</v>
@@ -15005,24 +14758,24 @@
         <v>28</v>
       </c>
       <c r="O248" s="1">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>375</v>
+        <v>36</v>
       </c>
       <c r="Q248" s="1">
-        <v>0.23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="B249">
-        <v>668</v>
+        <v>818</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D249" t="s">
         <v>23</v>
@@ -15034,45 +14787,45 @@
         <v>24</v>
       </c>
       <c r="G249" s="1">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="H249" t="s">
         <v>25</v>
       </c>
       <c r="I249" s="1">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="J249" t="s">
         <v>26</v>
       </c>
       <c r="K249" s="1">
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="L249" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="M249" s="1">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="N249" t="s">
-        <v>28</v>
+        <v>327</v>
       </c>
       <c r="O249" s="1">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="P249" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="Q249" s="1">
-        <v>1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="B250">
-        <v>944</v>
+        <v>387</v>
       </c>
       <c r="C250" t="s">
         <v>22</v>
@@ -15114,21 +14867,21 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="Q250" s="1">
-        <v>1</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="B251">
-        <v>212</v>
+        <v>426</v>
       </c>
       <c r="C251" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D251" t="s">
         <v>23</v>
@@ -15140,45 +14893,45 @@
         <v>24</v>
       </c>
       <c r="G251" s="1">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="I251" s="1">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>379</v>
+        <v>26</v>
       </c>
       <c r="K251" s="1">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="L251" t="s">
-        <v>380</v>
+        <v>27</v>
       </c>
       <c r="M251" s="1">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="N251" t="s">
-        <v>381</v>
+        <v>28</v>
       </c>
       <c r="O251" s="1">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="P251" t="s">
-        <v>382</v>
+        <v>194</v>
       </c>
       <c r="Q251" s="1">
-        <v>0.05</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="B252">
-        <v>543</v>
+        <v>836</v>
       </c>
       <c r="C252" t="s">
         <v>22</v>
@@ -15220,18 +14973,18 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>384</v>
+        <v>115</v>
       </c>
       <c r="Q252" s="1">
-        <v>1</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>385</v>
-      </c>
-      <c r="B253">
-        <v>810</v>
+        <v>332</v>
+      </c>
+      <c r="B253" t="s">
+        <v>153</v>
       </c>
       <c r="C253" t="s">
         <v>22</v>
@@ -15273,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q253" s="1">
         <v>1</v>
@@ -15281,10 +15034,10 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="B254">
-        <v>986</v>
+        <v>464</v>
       </c>
       <c r="C254" t="s">
         <v>22</v>
@@ -15326,7 +15079,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q254" s="1">
         <v>1</v>
@@ -15334,10 +15087,10 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="B255">
-        <v>232</v>
+        <v>490</v>
       </c>
       <c r="C255" t="s">
         <v>22</v>
@@ -15373,13 +15126,13 @@
         <v>1</v>
       </c>
       <c r="N255" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O255" s="1">
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q255" s="1">
         <v>1</v>
@@ -15387,10 +15140,10 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="B256">
-        <v>975</v>
+        <v>873</v>
       </c>
       <c r="C256" t="s">
         <v>22</v>
@@ -15432,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q256" s="1">
         <v>1</v>
@@ -15440,10 +15193,10 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="B257">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="C257" t="s">
         <v>22</v>
@@ -15485,18 +15238,18 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q257" s="1">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="B258">
-        <v>608</v>
+        <v>104</v>
       </c>
       <c r="C258" t="s">
         <v>22</v>
@@ -15532,24 +15285,24 @@
         <v>1</v>
       </c>
       <c r="N258" t="s">
-        <v>391</v>
+        <v>28</v>
       </c>
       <c r="O258" s="1">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>392</v>
+        <v>36</v>
       </c>
       <c r="Q258" s="1">
-        <v>0.61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="B259">
-        <v>298</v>
+        <v>484</v>
       </c>
       <c r="C259" t="s">
         <v>22</v>
@@ -15585,13 +15338,13 @@
         <v>1</v>
       </c>
       <c r="N259" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O259" s="1">
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q259" s="1">
         <v>1</v>
@@ -15599,10 +15352,10 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="B260">
-        <v>632</v>
+        <v>585</v>
       </c>
       <c r="C260" t="s">
         <v>22</v>
@@ -15641,21 +15394,21 @@
         <v>28</v>
       </c>
       <c r="O260" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P260" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q260" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="B261">
-        <v>347</v>
+        <v>893</v>
       </c>
       <c r="C261" t="s">
         <v>22</v>
@@ -15691,13 +15444,13 @@
         <v>1</v>
       </c>
       <c r="N261" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O261" s="1">
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q261" s="1">
         <v>1</v>
@@ -15705,10 +15458,10 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="B262">
-        <v>665</v>
+        <v>187</v>
       </c>
       <c r="C262" t="s">
         <v>22</v>
@@ -15750,18 +15503,18 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="Q262" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="B263">
-        <v>363</v>
+        <v>508</v>
       </c>
       <c r="C263" t="s">
         <v>22</v>
@@ -15803,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q263" s="1">
         <v>1</v>
@@ -15811,10 +15564,10 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="B264">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="C264" t="s">
         <v>22</v>
@@ -15853,21 +15606,21 @@
         <v>28</v>
       </c>
       <c r="O264" s="1">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="P264" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="Q264" s="1">
-        <v>1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="B265">
-        <v>238</v>
+        <v>948</v>
       </c>
       <c r="C265" t="s">
         <v>22</v>
@@ -15897,19 +15650,19 @@
         <v>1</v>
       </c>
       <c r="L265" t="s">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="M265" s="1">
         <v>1</v>
       </c>
       <c r="N265" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="O265" s="1">
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="Q265" s="1">
         <v>1</v>
@@ -15917,10 +15670,10 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="B266">
-        <v>377</v>
+        <v>213</v>
       </c>
       <c r="C266" t="s">
         <v>22</v>
@@ -15932,48 +15685,48 @@
         <v>1</v>
       </c>
       <c r="F266" t="s">
-        <v>24</v>
+        <v>346</v>
       </c>
       <c r="G266" s="1">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="H266" t="s">
-        <v>25</v>
+        <v>347</v>
       </c>
       <c r="I266" s="1">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="J266" t="s">
-        <v>26</v>
+        <v>348</v>
       </c>
       <c r="K266" s="1">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="L266" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="M266" s="1">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="N266" t="s">
-        <v>31</v>
+        <v>350</v>
       </c>
       <c r="O266" s="1">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="P266" t="s">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="Q266" s="1">
-        <v>1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="B267">
-        <v>774</v>
+        <v>838</v>
       </c>
       <c r="C267" t="s">
         <v>22</v>
@@ -16015,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q267" s="1">
         <v>1</v>
@@ -16023,10 +15776,10 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="B268" t="s">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="C268" t="s">
         <v>22</v>
@@ -16050,25 +15803,25 @@
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="K268" s="1">
         <v>1</v>
       </c>
       <c r="L268" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M268" s="1">
         <v>1</v>
       </c>
       <c r="N268" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O268" s="1">
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="Q268" s="1">
         <v>1</v>
@@ -16076,10 +15829,10 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="B269">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="C269" t="s">
         <v>22</v>
@@ -16118,21 +15871,21 @@
         <v>28</v>
       </c>
       <c r="O269" s="1">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="Q269" s="1">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="B270">
-        <v>404</v>
+        <v>580</v>
       </c>
       <c r="C270" t="s">
         <v>22</v>
@@ -16174,21 +15927,21 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="Q270" s="1">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="B271">
-        <v>818</v>
+        <v>977</v>
       </c>
       <c r="C271" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D271" t="s">
         <v>23</v>
@@ -16200,45 +15953,45 @@
         <v>24</v>
       </c>
       <c r="G271" s="1">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>25</v>
       </c>
       <c r="I271" s="1">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="J271" t="s">
         <v>26</v>
       </c>
       <c r="K271" s="1">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="L271" t="s">
-        <v>407</v>
+        <v>27</v>
       </c>
       <c r="M271" s="1">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="N271" t="s">
-        <v>408</v>
+        <v>28</v>
       </c>
       <c r="O271" s="1">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>409</v>
+        <v>36</v>
       </c>
       <c r="Q271" s="1">
-        <v>0.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>410</v>
-      </c>
-      <c r="B272" t="s">
-        <v>411</v>
+        <v>357</v>
+      </c>
+      <c r="B272">
+        <v>288</v>
       </c>
       <c r="C272" t="s">
         <v>22</v>
@@ -16256,42 +16009,42 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="I272" s="1">
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="K272" s="1">
         <v>1</v>
       </c>
       <c r="L272" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="M272" s="1">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N272" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="O272" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>412</v>
+        <v>36</v>
       </c>
       <c r="Q272" s="1">
-        <v>0.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="B273">
-        <v>387</v>
+        <v>610</v>
       </c>
       <c r="C273" t="s">
         <v>22</v>
@@ -16333,18 +16086,18 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q273" s="1">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="B274">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="C274" t="s">
         <v>22</v>
@@ -16383,21 +16136,21 @@
         <v>28</v>
       </c>
       <c r="O274" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="Q274" s="1">
-        <v>0.82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="B275">
-        <v>836</v>
+        <v>633</v>
       </c>
       <c r="C275" t="s">
         <v>22</v>
@@ -16439,18 +16192,18 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="Q275" s="1">
-        <v>0.78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>416</v>
-      </c>
-      <c r="B276" t="s">
-        <v>189</v>
+        <v>361</v>
+      </c>
+      <c r="B276">
+        <v>349</v>
       </c>
       <c r="C276" t="s">
         <v>22</v>
@@ -16486,13 +16239,13 @@
         <v>1</v>
       </c>
       <c r="N276" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O276" s="1">
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="Q276" s="1">
         <v>1</v>
@@ -16500,10 +16253,10 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="B277">
-        <v>464</v>
+        <v>364</v>
       </c>
       <c r="C277" t="s">
         <v>22</v>
@@ -16545,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q277" s="1">
         <v>1</v>
@@ -16553,10 +16306,10 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="B278">
-        <v>490</v>
+        <v>726</v>
       </c>
       <c r="C278" t="s">
         <v>22</v>
@@ -16598,1228 +16351,9 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q278" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>419</v>
-      </c>
-      <c r="B279">
-        <v>873</v>
-      </c>
-      <c r="C279" t="s">
-        <v>22</v>
-      </c>
-      <c r="D279" t="s">
-        <v>23</v>
-      </c>
-      <c r="E279" s="1">
-        <v>1</v>
-      </c>
-      <c r="F279" t="s">
-        <v>24</v>
-      </c>
-      <c r="G279" s="1">
-        <v>1</v>
-      </c>
-      <c r="H279" t="s">
-        <v>25</v>
-      </c>
-      <c r="I279" s="1">
-        <v>1</v>
-      </c>
-      <c r="J279" t="s">
-        <v>26</v>
-      </c>
-      <c r="K279" s="1">
-        <v>1</v>
-      </c>
-      <c r="L279" t="s">
-        <v>27</v>
-      </c>
-      <c r="M279" s="1">
-        <v>1</v>
-      </c>
-      <c r="N279" t="s">
-        <v>28</v>
-      </c>
-      <c r="O279" s="1">
-        <v>1</v>
-      </c>
-      <c r="P279" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q279" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>420</v>
-      </c>
-      <c r="B280">
-        <v>88</v>
-      </c>
-      <c r="C280" t="s">
-        <v>22</v>
-      </c>
-      <c r="D280" t="s">
-        <v>23</v>
-      </c>
-      <c r="E280" s="1">
-        <v>1</v>
-      </c>
-      <c r="F280" t="s">
-        <v>24</v>
-      </c>
-      <c r="G280" s="1">
-        <v>1</v>
-      </c>
-      <c r="H280" t="s">
-        <v>25</v>
-      </c>
-      <c r="I280" s="1">
-        <v>1</v>
-      </c>
-      <c r="J280" t="s">
-        <v>26</v>
-      </c>
-      <c r="K280" s="1">
-        <v>1</v>
-      </c>
-      <c r="L280" t="s">
-        <v>27</v>
-      </c>
-      <c r="M280" s="1">
-        <v>1</v>
-      </c>
-      <c r="N280" t="s">
-        <v>28</v>
-      </c>
-      <c r="O280" s="1">
-        <v>1</v>
-      </c>
-      <c r="P280" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q280" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>421</v>
-      </c>
-      <c r="B281">
-        <v>104</v>
-      </c>
-      <c r="C281" t="s">
-        <v>22</v>
-      </c>
-      <c r="D281" t="s">
-        <v>23</v>
-      </c>
-      <c r="E281" s="1">
-        <v>1</v>
-      </c>
-      <c r="F281" t="s">
-        <v>24</v>
-      </c>
-      <c r="G281" s="1">
-        <v>1</v>
-      </c>
-      <c r="H281" t="s">
-        <v>25</v>
-      </c>
-      <c r="I281" s="1">
-        <v>1</v>
-      </c>
-      <c r="J281" t="s">
-        <v>26</v>
-      </c>
-      <c r="K281" s="1">
-        <v>1</v>
-      </c>
-      <c r="L281" t="s">
-        <v>27</v>
-      </c>
-      <c r="M281" s="1">
-        <v>1</v>
-      </c>
-      <c r="N281" t="s">
-        <v>28</v>
-      </c>
-      <c r="O281" s="1">
-        <v>1</v>
-      </c>
-      <c r="P281" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q281" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>422</v>
-      </c>
-      <c r="B282">
-        <v>484</v>
-      </c>
-      <c r="C282" t="s">
-        <v>22</v>
-      </c>
-      <c r="D282" t="s">
-        <v>23</v>
-      </c>
-      <c r="E282" s="1">
-        <v>1</v>
-      </c>
-      <c r="F282" t="s">
-        <v>24</v>
-      </c>
-      <c r="G282" s="1">
-        <v>1</v>
-      </c>
-      <c r="H282" t="s">
-        <v>25</v>
-      </c>
-      <c r="I282" s="1">
-        <v>1</v>
-      </c>
-      <c r="J282" t="s">
-        <v>26</v>
-      </c>
-      <c r="K282" s="1">
-        <v>1</v>
-      </c>
-      <c r="L282" t="s">
-        <v>27</v>
-      </c>
-      <c r="M282" s="1">
-        <v>1</v>
-      </c>
-      <c r="N282" t="s">
-        <v>28</v>
-      </c>
-      <c r="O282" s="1">
-        <v>1</v>
-      </c>
-      <c r="P282" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q282" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>423</v>
-      </c>
-      <c r="B283">
-        <v>585</v>
-      </c>
-      <c r="C283" t="s">
-        <v>22</v>
-      </c>
-      <c r="D283" t="s">
-        <v>23</v>
-      </c>
-      <c r="E283" s="1">
-        <v>1</v>
-      </c>
-      <c r="F283" t="s">
-        <v>24</v>
-      </c>
-      <c r="G283" s="1">
-        <v>1</v>
-      </c>
-      <c r="H283" t="s">
-        <v>25</v>
-      </c>
-      <c r="I283" s="1">
-        <v>1</v>
-      </c>
-      <c r="J283" t="s">
-        <v>26</v>
-      </c>
-      <c r="K283" s="1">
-        <v>1</v>
-      </c>
-      <c r="L283" t="s">
-        <v>27</v>
-      </c>
-      <c r="M283" s="1">
-        <v>1</v>
-      </c>
-      <c r="N283" t="s">
-        <v>28</v>
-      </c>
-      <c r="O283" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="P283" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q283" s="1">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>424</v>
-      </c>
-      <c r="B284">
-        <v>893</v>
-      </c>
-      <c r="C284" t="s">
-        <v>22</v>
-      </c>
-      <c r="D284" t="s">
-        <v>23</v>
-      </c>
-      <c r="E284" s="1">
-        <v>1</v>
-      </c>
-      <c r="F284" t="s">
-        <v>24</v>
-      </c>
-      <c r="G284" s="1">
-        <v>1</v>
-      </c>
-      <c r="H284" t="s">
-        <v>25</v>
-      </c>
-      <c r="I284" s="1">
-        <v>1</v>
-      </c>
-      <c r="J284" t="s">
-        <v>26</v>
-      </c>
-      <c r="K284" s="1">
-        <v>1</v>
-      </c>
-      <c r="L284" t="s">
-        <v>27</v>
-      </c>
-      <c r="M284" s="1">
-        <v>1</v>
-      </c>
-      <c r="N284" t="s">
-        <v>28</v>
-      </c>
-      <c r="O284" s="1">
-        <v>1</v>
-      </c>
-      <c r="P284" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q284" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>425</v>
-      </c>
-      <c r="B285">
-        <v>187</v>
-      </c>
-      <c r="C285" t="s">
-        <v>22</v>
-      </c>
-      <c r="D285" t="s">
-        <v>23</v>
-      </c>
-      <c r="E285" s="1">
-        <v>1</v>
-      </c>
-      <c r="F285" t="s">
-        <v>24</v>
-      </c>
-      <c r="G285" s="1">
-        <v>1</v>
-      </c>
-      <c r="H285" t="s">
-        <v>25</v>
-      </c>
-      <c r="I285" s="1">
-        <v>1</v>
-      </c>
-      <c r="J285" t="s">
-        <v>26</v>
-      </c>
-      <c r="K285" s="1">
-        <v>1</v>
-      </c>
-      <c r="L285" t="s">
-        <v>27</v>
-      </c>
-      <c r="M285" s="1">
-        <v>1</v>
-      </c>
-      <c r="N285" t="s">
-        <v>28</v>
-      </c>
-      <c r="O285" s="1">
-        <v>1</v>
-      </c>
-      <c r="P285" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q285" s="1">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>426</v>
-      </c>
-      <c r="B286">
-        <v>508</v>
-      </c>
-      <c r="C286" t="s">
-        <v>22</v>
-      </c>
-      <c r="D286" t="s">
-        <v>23</v>
-      </c>
-      <c r="E286" s="1">
-        <v>1</v>
-      </c>
-      <c r="F286" t="s">
-        <v>24</v>
-      </c>
-      <c r="G286" s="1">
-        <v>1</v>
-      </c>
-      <c r="H286" t="s">
-        <v>25</v>
-      </c>
-      <c r="I286" s="1">
-        <v>1</v>
-      </c>
-      <c r="J286" t="s">
-        <v>26</v>
-      </c>
-      <c r="K286" s="1">
-        <v>1</v>
-      </c>
-      <c r="L286" t="s">
-        <v>27</v>
-      </c>
-      <c r="M286" s="1">
-        <v>1</v>
-      </c>
-      <c r="N286" t="s">
-        <v>28</v>
-      </c>
-      <c r="O286" s="1">
-        <v>1</v>
-      </c>
-      <c r="P286" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q286" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>427</v>
-      </c>
-      <c r="B287">
-        <v>699</v>
-      </c>
-      <c r="C287" t="s">
-        <v>22</v>
-      </c>
-      <c r="D287" t="s">
-        <v>23</v>
-      </c>
-      <c r="E287" s="1">
-        <v>1</v>
-      </c>
-      <c r="F287" t="s">
-        <v>24</v>
-      </c>
-      <c r="G287" s="1">
-        <v>1</v>
-      </c>
-      <c r="H287" t="s">
-        <v>25</v>
-      </c>
-      <c r="I287" s="1">
-        <v>1</v>
-      </c>
-      <c r="J287" t="s">
-        <v>26</v>
-      </c>
-      <c r="K287" s="1">
-        <v>1</v>
-      </c>
-      <c r="L287" t="s">
-        <v>27</v>
-      </c>
-      <c r="M287" s="1">
-        <v>1</v>
-      </c>
-      <c r="N287" t="s">
-        <v>28</v>
-      </c>
-      <c r="O287" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="P287" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q287" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>428</v>
-      </c>
-      <c r="B288">
-        <v>948</v>
-      </c>
-      <c r="C288" t="s">
-        <v>22</v>
-      </c>
-      <c r="D288" t="s">
-        <v>23</v>
-      </c>
-      <c r="E288" s="1">
-        <v>1</v>
-      </c>
-      <c r="F288" t="s">
-        <v>24</v>
-      </c>
-      <c r="G288" s="1">
-        <v>1</v>
-      </c>
-      <c r="H288" t="s">
-        <v>25</v>
-      </c>
-      <c r="I288" s="1">
-        <v>1</v>
-      </c>
-      <c r="J288" t="s">
-        <v>26</v>
-      </c>
-      <c r="K288" s="1">
-        <v>1</v>
-      </c>
-      <c r="L288" t="s">
-        <v>27</v>
-      </c>
-      <c r="M288" s="1">
-        <v>1</v>
-      </c>
-      <c r="N288" t="s">
-        <v>28</v>
-      </c>
-      <c r="O288" s="1">
-        <v>1</v>
-      </c>
-      <c r="P288" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q288" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>429</v>
-      </c>
-      <c r="B289">
-        <v>213</v>
-      </c>
-      <c r="C289" t="s">
-        <v>22</v>
-      </c>
-      <c r="D289" t="s">
-        <v>23</v>
-      </c>
-      <c r="E289" s="1">
-        <v>1</v>
-      </c>
-      <c r="F289" t="s">
-        <v>430</v>
-      </c>
-      <c r="G289" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="H289" t="s">
-        <v>431</v>
-      </c>
-      <c r="I289" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="J289" t="s">
-        <v>432</v>
-      </c>
-      <c r="K289" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="L289" t="s">
-        <v>433</v>
-      </c>
-      <c r="M289" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="N289" t="s">
-        <v>434</v>
-      </c>
-      <c r="O289" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="P289" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q289" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>436</v>
-      </c>
-      <c r="B290">
-        <v>838</v>
-      </c>
-      <c r="C290" t="s">
-        <v>22</v>
-      </c>
-      <c r="D290" t="s">
-        <v>23</v>
-      </c>
-      <c r="E290" s="1">
-        <v>1</v>
-      </c>
-      <c r="F290" t="s">
-        <v>24</v>
-      </c>
-      <c r="G290" s="1">
-        <v>1</v>
-      </c>
-      <c r="H290" t="s">
-        <v>25</v>
-      </c>
-      <c r="I290" s="1">
-        <v>1</v>
-      </c>
-      <c r="J290" t="s">
-        <v>26</v>
-      </c>
-      <c r="K290" s="1">
-        <v>1</v>
-      </c>
-      <c r="L290" t="s">
-        <v>27</v>
-      </c>
-      <c r="M290" s="1">
-        <v>1</v>
-      </c>
-      <c r="N290" t="s">
-        <v>28</v>
-      </c>
-      <c r="O290" s="1">
-        <v>1</v>
-      </c>
-      <c r="P290" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q290" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>437</v>
-      </c>
-      <c r="B291" t="s">
-        <v>189</v>
-      </c>
-      <c r="C291" t="s">
-        <v>22</v>
-      </c>
-      <c r="D291" t="s">
-        <v>23</v>
-      </c>
-      <c r="E291" s="1">
-        <v>1</v>
-      </c>
-      <c r="F291" t="s">
-        <v>24</v>
-      </c>
-      <c r="G291" s="1">
-        <v>1</v>
-      </c>
-      <c r="H291" t="s">
-        <v>25</v>
-      </c>
-      <c r="I291" s="1">
-        <v>1</v>
-      </c>
-      <c r="J291" t="s">
-        <v>26</v>
-      </c>
-      <c r="K291" s="1">
-        <v>1</v>
-      </c>
-      <c r="L291" t="s">
-        <v>27</v>
-      </c>
-      <c r="M291" s="1">
-        <v>1</v>
-      </c>
-      <c r="N291" t="s">
-        <v>28</v>
-      </c>
-      <c r="O291" s="1">
-        <v>1</v>
-      </c>
-      <c r="P291" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q291" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>438</v>
-      </c>
-      <c r="B292">
-        <v>241</v>
-      </c>
-      <c r="C292" t="s">
-        <v>22</v>
-      </c>
-      <c r="D292" t="s">
-        <v>23</v>
-      </c>
-      <c r="E292" s="1">
-        <v>1</v>
-      </c>
-      <c r="F292" t="s">
-        <v>24</v>
-      </c>
-      <c r="G292" s="1">
-        <v>1</v>
-      </c>
-      <c r="H292" t="s">
-        <v>25</v>
-      </c>
-      <c r="I292" s="1">
-        <v>1</v>
-      </c>
-      <c r="J292" t="s">
-        <v>26</v>
-      </c>
-      <c r="K292" s="1">
-        <v>1</v>
-      </c>
-      <c r="L292" t="s">
-        <v>27</v>
-      </c>
-      <c r="M292" s="1">
-        <v>1</v>
-      </c>
-      <c r="N292" t="s">
-        <v>28</v>
-      </c>
-      <c r="O292" s="1">
-        <v>1</v>
-      </c>
-      <c r="P292" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q292" s="1">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>439</v>
-      </c>
-      <c r="B293">
-        <v>580</v>
-      </c>
-      <c r="C293" t="s">
-        <v>22</v>
-      </c>
-      <c r="D293" t="s">
-        <v>23</v>
-      </c>
-      <c r="E293" s="1">
-        <v>1</v>
-      </c>
-      <c r="F293" t="s">
-        <v>24</v>
-      </c>
-      <c r="G293" s="1">
-        <v>1</v>
-      </c>
-      <c r="H293" t="s">
-        <v>25</v>
-      </c>
-      <c r="I293" s="1">
-        <v>1</v>
-      </c>
-      <c r="J293" t="s">
-        <v>26</v>
-      </c>
-      <c r="K293" s="1">
-        <v>1</v>
-      </c>
-      <c r="L293" t="s">
-        <v>27</v>
-      </c>
-      <c r="M293" s="1">
-        <v>1</v>
-      </c>
-      <c r="N293" t="s">
-        <v>28</v>
-      </c>
-      <c r="O293" s="1">
-        <v>1</v>
-      </c>
-      <c r="P293" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q293" s="1">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>440</v>
-      </c>
-      <c r="B294">
-        <v>977</v>
-      </c>
-      <c r="C294" t="s">
-        <v>22</v>
-      </c>
-      <c r="D294" t="s">
-        <v>23</v>
-      </c>
-      <c r="E294" s="1">
-        <v>1</v>
-      </c>
-      <c r="F294" t="s">
-        <v>24</v>
-      </c>
-      <c r="G294" s="1">
-        <v>1</v>
-      </c>
-      <c r="H294" t="s">
-        <v>25</v>
-      </c>
-      <c r="I294" s="1">
-        <v>1</v>
-      </c>
-      <c r="J294" t="s">
-        <v>26</v>
-      </c>
-      <c r="K294" s="1">
-        <v>1</v>
-      </c>
-      <c r="L294" t="s">
-        <v>27</v>
-      </c>
-      <c r="M294" s="1">
-        <v>1</v>
-      </c>
-      <c r="N294" t="s">
-        <v>28</v>
-      </c>
-      <c r="O294" s="1">
-        <v>1</v>
-      </c>
-      <c r="P294" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q294" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>441</v>
-      </c>
-      <c r="B295">
-        <v>288</v>
-      </c>
-      <c r="C295" t="s">
-        <v>22</v>
-      </c>
-      <c r="D295" t="s">
-        <v>23</v>
-      </c>
-      <c r="E295" s="1">
-        <v>1</v>
-      </c>
-      <c r="F295" t="s">
-        <v>24</v>
-      </c>
-      <c r="G295" s="1">
-        <v>1</v>
-      </c>
-      <c r="H295" t="s">
-        <v>25</v>
-      </c>
-      <c r="I295" s="1">
-        <v>1</v>
-      </c>
-      <c r="J295" t="s">
-        <v>26</v>
-      </c>
-      <c r="K295" s="1">
-        <v>1</v>
-      </c>
-      <c r="L295" t="s">
-        <v>27</v>
-      </c>
-      <c r="M295" s="1">
-        <v>1</v>
-      </c>
-      <c r="N295" t="s">
-        <v>28</v>
-      </c>
-      <c r="O295" s="1">
-        <v>1</v>
-      </c>
-      <c r="P295" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q295" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>442</v>
-      </c>
-      <c r="B296">
-        <v>610</v>
-      </c>
-      <c r="C296" t="s">
-        <v>22</v>
-      </c>
-      <c r="D296" t="s">
-        <v>23</v>
-      </c>
-      <c r="E296" s="1">
-        <v>1</v>
-      </c>
-      <c r="F296" t="s">
-        <v>24</v>
-      </c>
-      <c r="G296" s="1">
-        <v>1</v>
-      </c>
-      <c r="H296" t="s">
-        <v>25</v>
-      </c>
-      <c r="I296" s="1">
-        <v>1</v>
-      </c>
-      <c r="J296" t="s">
-        <v>26</v>
-      </c>
-      <c r="K296" s="1">
-        <v>1</v>
-      </c>
-      <c r="L296" t="s">
-        <v>27</v>
-      </c>
-      <c r="M296" s="1">
-        <v>1</v>
-      </c>
-      <c r="N296" t="s">
-        <v>28</v>
-      </c>
-      <c r="O296" s="1">
-        <v>1</v>
-      </c>
-      <c r="P296" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q296" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>443</v>
-      </c>
-      <c r="B297">
-        <v>300</v>
-      </c>
-      <c r="C297" t="s">
-        <v>22</v>
-      </c>
-      <c r="D297" t="s">
-        <v>23</v>
-      </c>
-      <c r="E297" s="1">
-        <v>1</v>
-      </c>
-      <c r="F297" t="s">
-        <v>24</v>
-      </c>
-      <c r="G297" s="1">
-        <v>1</v>
-      </c>
-      <c r="H297" t="s">
-        <v>25</v>
-      </c>
-      <c r="I297" s="1">
-        <v>1</v>
-      </c>
-      <c r="J297" t="s">
-        <v>26</v>
-      </c>
-      <c r="K297" s="1">
-        <v>1</v>
-      </c>
-      <c r="L297" t="s">
-        <v>27</v>
-      </c>
-      <c r="M297" s="1">
-        <v>1</v>
-      </c>
-      <c r="N297" t="s">
-        <v>28</v>
-      </c>
-      <c r="O297" s="1">
-        <v>1</v>
-      </c>
-      <c r="P297" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q297" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>444</v>
-      </c>
-      <c r="B298">
-        <v>633</v>
-      </c>
-      <c r="C298" t="s">
-        <v>22</v>
-      </c>
-      <c r="D298" t="s">
-        <v>23</v>
-      </c>
-      <c r="E298" s="1">
-        <v>1</v>
-      </c>
-      <c r="F298" t="s">
-        <v>24</v>
-      </c>
-      <c r="G298" s="1">
-        <v>1</v>
-      </c>
-      <c r="H298" t="s">
-        <v>25</v>
-      </c>
-      <c r="I298" s="1">
-        <v>1</v>
-      </c>
-      <c r="J298" t="s">
-        <v>26</v>
-      </c>
-      <c r="K298" s="1">
-        <v>1</v>
-      </c>
-      <c r="L298" t="s">
-        <v>27</v>
-      </c>
-      <c r="M298" s="1">
-        <v>1</v>
-      </c>
-      <c r="N298" t="s">
-        <v>28</v>
-      </c>
-      <c r="O298" s="1">
-        <v>1</v>
-      </c>
-      <c r="P298" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q298" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>445</v>
-      </c>
-      <c r="B299">
-        <v>349</v>
-      </c>
-      <c r="C299" t="s">
-        <v>22</v>
-      </c>
-      <c r="D299" t="s">
-        <v>23</v>
-      </c>
-      <c r="E299" s="1">
-        <v>1</v>
-      </c>
-      <c r="F299" t="s">
-        <v>24</v>
-      </c>
-      <c r="G299" s="1">
-        <v>1</v>
-      </c>
-      <c r="H299" t="s">
-        <v>25</v>
-      </c>
-      <c r="I299" s="1">
-        <v>1</v>
-      </c>
-      <c r="J299" t="s">
-        <v>26</v>
-      </c>
-      <c r="K299" s="1">
-        <v>1</v>
-      </c>
-      <c r="L299" t="s">
-        <v>27</v>
-      </c>
-      <c r="M299" s="1">
-        <v>1</v>
-      </c>
-      <c r="N299" t="s">
-        <v>31</v>
-      </c>
-      <c r="O299" s="1">
-        <v>1</v>
-      </c>
-      <c r="P299" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q299" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>446</v>
-      </c>
-      <c r="B300">
-        <v>364</v>
-      </c>
-      <c r="C300" t="s">
-        <v>22</v>
-      </c>
-      <c r="D300" t="s">
-        <v>23</v>
-      </c>
-      <c r="E300" s="1">
-        <v>1</v>
-      </c>
-      <c r="F300" t="s">
-        <v>24</v>
-      </c>
-      <c r="G300" s="1">
-        <v>1</v>
-      </c>
-      <c r="H300" t="s">
-        <v>25</v>
-      </c>
-      <c r="I300" s="1">
-        <v>1</v>
-      </c>
-      <c r="J300" t="s">
-        <v>26</v>
-      </c>
-      <c r="K300" s="1">
-        <v>1</v>
-      </c>
-      <c r="L300" t="s">
-        <v>27</v>
-      </c>
-      <c r="M300" s="1">
-        <v>1</v>
-      </c>
-      <c r="N300" t="s">
-        <v>28</v>
-      </c>
-      <c r="O300" s="1">
-        <v>1</v>
-      </c>
-      <c r="P300" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q300" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>447</v>
-      </c>
-      <c r="B301">
-        <v>726</v>
-      </c>
-      <c r="C301" t="s">
-        <v>22</v>
-      </c>
-      <c r="D301" t="s">
-        <v>23</v>
-      </c>
-      <c r="E301" s="1">
-        <v>1</v>
-      </c>
-      <c r="F301" t="s">
-        <v>24</v>
-      </c>
-      <c r="G301" s="1">
-        <v>1</v>
-      </c>
-      <c r="H301" t="s">
-        <v>25</v>
-      </c>
-      <c r="I301" s="1">
-        <v>1</v>
-      </c>
-      <c r="J301" t="s">
-        <v>26</v>
-      </c>
-      <c r="K301" s="1">
-        <v>1</v>
-      </c>
-      <c r="L301" t="s">
-        <v>27</v>
-      </c>
-      <c r="M301" s="1">
-        <v>1</v>
-      </c>
-      <c r="N301" t="s">
-        <v>28</v>
-      </c>
-      <c r="O301" s="1">
-        <v>1</v>
-      </c>
-      <c r="P301" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q301" s="1">
         <v>1</v>
       </c>
     </row>
